--- a/database/industries/urea/shapdis/product/monthly_seprated.xlsx
+++ b/database/industries/urea/shapdis/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD4CEB-3FB1-462E-B7CB-B754F7B7D745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61A2F7-5AB0-4E81-8438-C7C336F8F41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 12 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 2 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1501,86 +1501,86 @@
       <c r="AA11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
+      <c r="AB11" s="11">
+        <v>283237</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>286485</v>
       </c>
       <c r="AD11" s="11">
-        <v>283237</v>
+        <v>279469</v>
       </c>
       <c r="AE11" s="11">
-        <v>286485</v>
+        <v>216906</v>
       </c>
       <c r="AF11" s="11">
-        <v>279469</v>
+        <v>279355</v>
       </c>
       <c r="AG11" s="11">
-        <v>216906</v>
+        <v>267862</v>
       </c>
       <c r="AH11" s="11">
-        <v>279355</v>
+        <v>299911</v>
       </c>
       <c r="AI11" s="11">
-        <v>267862</v>
+        <v>277491</v>
       </c>
       <c r="AJ11" s="11">
-        <v>299911</v>
+        <v>283304</v>
       </c>
       <c r="AK11" s="11">
-        <v>277491</v>
+        <v>258736</v>
       </c>
       <c r="AL11" s="11">
-        <v>283304</v>
+        <v>279802</v>
       </c>
       <c r="AM11" s="11">
-        <v>258736</v>
+        <v>280120</v>
       </c>
       <c r="AN11" s="11">
-        <v>279802</v>
+        <v>282960</v>
       </c>
       <c r="AO11" s="11">
-        <v>280120</v>
+        <v>280272</v>
       </c>
       <c r="AP11" s="11">
-        <v>282960</v>
+        <v>210275</v>
       </c>
       <c r="AQ11" s="11">
-        <v>280272</v>
+        <v>163163</v>
       </c>
       <c r="AR11" s="11">
-        <v>210275</v>
+        <v>188746</v>
       </c>
       <c r="AS11" s="11">
-        <v>163163</v>
+        <v>-1125416</v>
       </c>
       <c r="AT11" s="11">
-        <v>188746</v>
+        <v>295487</v>
       </c>
       <c r="AU11" s="11">
-        <v>272791</v>
+        <v>293527</v>
       </c>
       <c r="AV11" s="11">
-        <v>295487</v>
+        <v>258459</v>
       </c>
       <c r="AW11" s="11">
-        <v>293527</v>
+        <v>270113</v>
       </c>
       <c r="AX11" s="11">
-        <v>258459</v>
+        <v>280799</v>
       </c>
       <c r="AY11" s="11">
-        <v>270113</v>
+        <v>291318</v>
       </c>
       <c r="AZ11" s="11">
-        <v>280799</v>
+        <v>286177</v>
       </c>
       <c r="BA11" s="11">
-        <v>291318</v>
+        <v>230526</v>
       </c>
       <c r="BB11" s="11">
-        <v>286177</v>
+        <v>251480</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1659,85 +1659,85 @@
         <v>0</v>
       </c>
       <c r="AB12" s="13">
-        <v>0</v>
+        <v>283237</v>
       </c>
       <c r="AC12" s="13">
-        <v>0</v>
+        <v>286485</v>
       </c>
       <c r="AD12" s="13">
-        <v>283237</v>
+        <v>279469</v>
       </c>
       <c r="AE12" s="13">
-        <v>286485</v>
+        <v>216906</v>
       </c>
       <c r="AF12" s="13">
-        <v>279469</v>
+        <v>279355</v>
       </c>
       <c r="AG12" s="13">
-        <v>216906</v>
+        <v>267862</v>
       </c>
       <c r="AH12" s="13">
-        <v>279355</v>
+        <v>299911</v>
       </c>
       <c r="AI12" s="13">
-        <v>267862</v>
+        <v>277491</v>
       </c>
       <c r="AJ12" s="13">
-        <v>299911</v>
+        <v>283304</v>
       </c>
       <c r="AK12" s="13">
-        <v>277491</v>
+        <v>258736</v>
       </c>
       <c r="AL12" s="13">
-        <v>283304</v>
+        <v>279802</v>
       </c>
       <c r="AM12" s="13">
-        <v>258736</v>
+        <v>280120</v>
       </c>
       <c r="AN12" s="13">
-        <v>279802</v>
+        <v>282960</v>
       </c>
       <c r="AO12" s="13">
-        <v>280120</v>
+        <v>280272</v>
       </c>
       <c r="AP12" s="13">
-        <v>282960</v>
+        <v>210275</v>
       </c>
       <c r="AQ12" s="13">
-        <v>280272</v>
+        <v>163163</v>
       </c>
       <c r="AR12" s="13">
-        <v>210275</v>
+        <v>188746</v>
       </c>
       <c r="AS12" s="13">
-        <v>163163</v>
+        <v>-1125416</v>
       </c>
       <c r="AT12" s="13">
-        <v>188746</v>
+        <v>295487</v>
       </c>
       <c r="AU12" s="13">
-        <v>272791</v>
+        <v>293527</v>
       </c>
       <c r="AV12" s="13">
-        <v>295487</v>
+        <v>258459</v>
       </c>
       <c r="AW12" s="13">
-        <v>293527</v>
+        <v>270113</v>
       </c>
       <c r="AX12" s="13">
-        <v>258459</v>
+        <v>280799</v>
       </c>
       <c r="AY12" s="13">
-        <v>270113</v>
+        <v>291318</v>
       </c>
       <c r="AZ12" s="13">
-        <v>280799</v>
+        <v>286177</v>
       </c>
       <c r="BA12" s="13">
-        <v>291318</v>
+        <v>230526</v>
       </c>
       <c r="BB12" s="13">
-        <v>286177</v>
+        <v>251480</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1874,86 +1874,86 @@
       <c r="AA14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>58</v>
+      <c r="AB14" s="11">
+        <v>180235</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>177449</v>
       </c>
       <c r="AD14" s="11">
-        <v>180235</v>
+        <v>168304</v>
       </c>
       <c r="AE14" s="11">
-        <v>177449</v>
+        <v>134863</v>
       </c>
       <c r="AF14" s="11">
-        <v>168304</v>
+        <v>179834</v>
       </c>
       <c r="AG14" s="11">
-        <v>134863</v>
+        <v>169858</v>
       </c>
       <c r="AH14" s="11">
-        <v>179834</v>
+        <v>191388</v>
       </c>
       <c r="AI14" s="11">
-        <v>169858</v>
+        <v>179313</v>
       </c>
       <c r="AJ14" s="11">
-        <v>191388</v>
+        <v>183529</v>
       </c>
       <c r="AK14" s="11">
-        <v>179313</v>
+        <v>164775</v>
       </c>
       <c r="AL14" s="11">
-        <v>183529</v>
+        <v>178647</v>
       </c>
       <c r="AM14" s="11">
-        <v>164775</v>
+        <v>180718</v>
       </c>
       <c r="AN14" s="11">
-        <v>178647</v>
+        <v>182476</v>
       </c>
       <c r="AO14" s="11">
-        <v>180718</v>
+        <v>184015</v>
       </c>
       <c r="AP14" s="11">
-        <v>182476</v>
+        <v>134757</v>
       </c>
       <c r="AQ14" s="11">
-        <v>184015</v>
+        <v>116691</v>
       </c>
       <c r="AR14" s="11">
-        <v>134757</v>
+        <v>126726</v>
       </c>
       <c r="AS14" s="11">
-        <v>116691</v>
+        <v>178333</v>
       </c>
       <c r="AT14" s="11">
-        <v>126726</v>
+        <v>187614</v>
       </c>
       <c r="AU14" s="11">
-        <v>178333</v>
+        <v>180706</v>
       </c>
       <c r="AV14" s="11">
-        <v>187614</v>
+        <v>179516</v>
       </c>
       <c r="AW14" s="11">
-        <v>180706</v>
+        <v>176477</v>
       </c>
       <c r="AX14" s="11">
-        <v>179516</v>
+        <v>178057</v>
       </c>
       <c r="AY14" s="11">
-        <v>176477</v>
+        <v>187285</v>
       </c>
       <c r="AZ14" s="11">
-        <v>178057</v>
+        <v>180385</v>
       </c>
       <c r="BA14" s="11">
-        <v>187285</v>
+        <v>145998</v>
       </c>
       <c r="BB14" s="11">
-        <v>180385</v>
+        <v>159553</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2033,11 +2033,11 @@
       <c r="AA15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC15" s="15" t="s">
-        <v>58</v>
+      <c r="AB15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>0</v>
       </c>
       <c r="AD15" s="15">
         <v>0</v>
@@ -2093,11 +2093,11 @@
       <c r="AU15" s="15">
         <v>0</v>
       </c>
-      <c r="AV15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW15" s="15" t="s">
-        <v>58</v>
+      <c r="AV15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="15">
+        <v>0</v>
       </c>
       <c r="AX15" s="15">
         <v>0</v>
@@ -2191,85 +2191,85 @@
         <v>0</v>
       </c>
       <c r="AB16" s="17">
-        <v>0</v>
+        <v>180235</v>
       </c>
       <c r="AC16" s="17">
-        <v>0</v>
+        <v>177449</v>
       </c>
       <c r="AD16" s="17">
-        <v>180235</v>
+        <v>168304</v>
       </c>
       <c r="AE16" s="17">
-        <v>177449</v>
+        <v>134863</v>
       </c>
       <c r="AF16" s="17">
-        <v>168304</v>
+        <v>179834</v>
       </c>
       <c r="AG16" s="17">
-        <v>134863</v>
+        <v>169858</v>
       </c>
       <c r="AH16" s="17">
-        <v>179834</v>
+        <v>191388</v>
       </c>
       <c r="AI16" s="17">
-        <v>169858</v>
+        <v>179313</v>
       </c>
       <c r="AJ16" s="17">
-        <v>191388</v>
+        <v>183529</v>
       </c>
       <c r="AK16" s="17">
-        <v>179313</v>
+        <v>164775</v>
       </c>
       <c r="AL16" s="17">
-        <v>183529</v>
+        <v>178647</v>
       </c>
       <c r="AM16" s="17">
-        <v>164775</v>
+        <v>180718</v>
       </c>
       <c r="AN16" s="17">
-        <v>178647</v>
+        <v>182476</v>
       </c>
       <c r="AO16" s="17">
-        <v>180718</v>
+        <v>184015</v>
       </c>
       <c r="AP16" s="17">
-        <v>182476</v>
+        <v>134757</v>
       </c>
       <c r="AQ16" s="17">
-        <v>184015</v>
+        <v>116691</v>
       </c>
       <c r="AR16" s="17">
-        <v>134757</v>
+        <v>126726</v>
       </c>
       <c r="AS16" s="17">
-        <v>116691</v>
+        <v>178333</v>
       </c>
       <c r="AT16" s="17">
-        <v>126726</v>
+        <v>187614</v>
       </c>
       <c r="AU16" s="17">
-        <v>178333</v>
+        <v>180706</v>
       </c>
       <c r="AV16" s="17">
-        <v>187614</v>
+        <v>179516</v>
       </c>
       <c r="AW16" s="17">
-        <v>180706</v>
+        <v>176477</v>
       </c>
       <c r="AX16" s="17">
-        <v>179516</v>
+        <v>178057</v>
       </c>
       <c r="AY16" s="17">
-        <v>176477</v>
+        <v>187285</v>
       </c>
       <c r="AZ16" s="17">
-        <v>178057</v>
+        <v>180385</v>
       </c>
       <c r="BA16" s="17">
-        <v>187285</v>
+        <v>145998</v>
       </c>
       <c r="BB16" s="17">
-        <v>180385</v>
+        <v>159553</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2404,11 +2404,11 @@
       <c r="AA18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC18" s="17" t="s">
-        <v>58</v>
+      <c r="AB18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>0</v>
       </c>
       <c r="AD18" s="17">
         <v>0</v>
@@ -2562,85 +2562,85 @@
         <v>0</v>
       </c>
       <c r="AB19" s="13">
-        <v>0</v>
+        <v>463472</v>
       </c>
       <c r="AC19" s="13">
-        <v>0</v>
+        <v>463934</v>
       </c>
       <c r="AD19" s="13">
-        <v>463472</v>
+        <v>447773</v>
       </c>
       <c r="AE19" s="13">
-        <v>463934</v>
+        <v>351769</v>
       </c>
       <c r="AF19" s="13">
-        <v>447773</v>
+        <v>459189</v>
       </c>
       <c r="AG19" s="13">
-        <v>351769</v>
+        <v>437720</v>
       </c>
       <c r="AH19" s="13">
-        <v>459189</v>
+        <v>491299</v>
       </c>
       <c r="AI19" s="13">
-        <v>437720</v>
+        <v>456804</v>
       </c>
       <c r="AJ19" s="13">
-        <v>491299</v>
+        <v>466833</v>
       </c>
       <c r="AK19" s="13">
-        <v>456804</v>
+        <v>423511</v>
       </c>
       <c r="AL19" s="13">
-        <v>466833</v>
+        <v>458449</v>
       </c>
       <c r="AM19" s="13">
-        <v>423511</v>
+        <v>460838</v>
       </c>
       <c r="AN19" s="13">
-        <v>458449</v>
+        <v>465436</v>
       </c>
       <c r="AO19" s="13">
-        <v>460838</v>
+        <v>464287</v>
       </c>
       <c r="AP19" s="13">
-        <v>465436</v>
+        <v>345032</v>
       </c>
       <c r="AQ19" s="13">
-        <v>464287</v>
+        <v>279854</v>
       </c>
       <c r="AR19" s="13">
-        <v>345032</v>
+        <v>315472</v>
       </c>
       <c r="AS19" s="13">
-        <v>279854</v>
+        <v>-947083</v>
       </c>
       <c r="AT19" s="13">
-        <v>315472</v>
+        <v>483101</v>
       </c>
       <c r="AU19" s="13">
-        <v>451124</v>
+        <v>474233</v>
       </c>
       <c r="AV19" s="13">
-        <v>483101</v>
+        <v>437975</v>
       </c>
       <c r="AW19" s="13">
-        <v>474233</v>
+        <v>446590</v>
       </c>
       <c r="AX19" s="13">
-        <v>437975</v>
+        <v>458856</v>
       </c>
       <c r="AY19" s="13">
-        <v>446590</v>
+        <v>478603</v>
       </c>
       <c r="AZ19" s="13">
-        <v>458856</v>
+        <v>466562</v>
       </c>
       <c r="BA19" s="13">
-        <v>478603</v>
+        <v>376524</v>
       </c>
       <c r="BB19" s="13">
-        <v>466562</v>
+        <v>411033</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3154,86 +3154,86 @@
       <c r="AA26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>58</v>
+      <c r="AB26" s="11">
+        <v>139296</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>96324</v>
       </c>
       <c r="AD26" s="11">
-        <v>139296</v>
+        <v>80609</v>
       </c>
       <c r="AE26" s="11">
-        <v>96324</v>
+        <v>87360</v>
       </c>
       <c r="AF26" s="11">
-        <v>80609</v>
+        <v>144840</v>
       </c>
       <c r="AG26" s="11">
-        <v>87360</v>
+        <v>115922</v>
       </c>
       <c r="AH26" s="11">
-        <v>144840</v>
+        <v>125722</v>
       </c>
       <c r="AI26" s="11">
-        <v>115922</v>
+        <v>96523</v>
       </c>
       <c r="AJ26" s="11">
-        <v>125722</v>
+        <v>44964</v>
       </c>
       <c r="AK26" s="11">
-        <v>96523</v>
+        <v>39064</v>
       </c>
       <c r="AL26" s="11">
-        <v>44964</v>
+        <v>123891</v>
       </c>
       <c r="AM26" s="11">
-        <v>39064</v>
+        <v>115949</v>
       </c>
       <c r="AN26" s="11">
-        <v>123891</v>
+        <v>83629</v>
       </c>
       <c r="AO26" s="11">
-        <v>115949</v>
+        <v>129244</v>
       </c>
       <c r="AP26" s="11">
-        <v>83629</v>
+        <v>86982</v>
       </c>
       <c r="AQ26" s="11">
-        <v>129244</v>
+        <v>82756</v>
       </c>
       <c r="AR26" s="11">
-        <v>86982</v>
+        <v>90290</v>
       </c>
       <c r="AS26" s="11">
-        <v>82756</v>
+        <v>124103</v>
       </c>
       <c r="AT26" s="11">
-        <v>90290</v>
+        <v>64354</v>
       </c>
       <c r="AU26" s="11">
-        <v>124103</v>
+        <v>80398</v>
       </c>
       <c r="AV26" s="11">
-        <v>64354</v>
+        <v>73459</v>
       </c>
       <c r="AW26" s="11">
-        <v>80398</v>
+        <v>104957</v>
       </c>
       <c r="AX26" s="11">
-        <v>73459</v>
+        <v>25177</v>
       </c>
       <c r="AY26" s="11">
-        <v>104957</v>
+        <v>103593</v>
       </c>
       <c r="AZ26" s="11">
-        <v>25177</v>
+        <v>15067</v>
       </c>
       <c r="BA26" s="11">
-        <v>103593</v>
+        <v>62144</v>
       </c>
       <c r="BB26" s="11">
-        <v>15067</v>
+        <v>117986</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3312,85 +3312,85 @@
         <v>0</v>
       </c>
       <c r="AB27" s="13">
-        <v>0</v>
+        <v>139296</v>
       </c>
       <c r="AC27" s="13">
-        <v>0</v>
+        <v>96324</v>
       </c>
       <c r="AD27" s="13">
-        <v>139296</v>
+        <v>80609</v>
       </c>
       <c r="AE27" s="13">
-        <v>96324</v>
+        <v>87360</v>
       </c>
       <c r="AF27" s="13">
-        <v>80609</v>
+        <v>144840</v>
       </c>
       <c r="AG27" s="13">
-        <v>87360</v>
+        <v>115922</v>
       </c>
       <c r="AH27" s="13">
-        <v>144840</v>
+        <v>125722</v>
       </c>
       <c r="AI27" s="13">
-        <v>115922</v>
+        <v>96523</v>
       </c>
       <c r="AJ27" s="13">
-        <v>125722</v>
+        <v>44964</v>
       </c>
       <c r="AK27" s="13">
-        <v>96523</v>
+        <v>39064</v>
       </c>
       <c r="AL27" s="13">
-        <v>44964</v>
+        <v>123891</v>
       </c>
       <c r="AM27" s="13">
-        <v>39064</v>
+        <v>115949</v>
       </c>
       <c r="AN27" s="13">
-        <v>123891</v>
+        <v>83629</v>
       </c>
       <c r="AO27" s="13">
-        <v>115949</v>
+        <v>129244</v>
       </c>
       <c r="AP27" s="13">
-        <v>83629</v>
+        <v>86982</v>
       </c>
       <c r="AQ27" s="13">
-        <v>129244</v>
+        <v>82756</v>
       </c>
       <c r="AR27" s="13">
-        <v>86982</v>
+        <v>90290</v>
       </c>
       <c r="AS27" s="13">
-        <v>82756</v>
+        <v>124103</v>
       </c>
       <c r="AT27" s="13">
-        <v>90290</v>
+        <v>64354</v>
       </c>
       <c r="AU27" s="13">
-        <v>124103</v>
+        <v>80398</v>
       </c>
       <c r="AV27" s="13">
-        <v>64354</v>
+        <v>73459</v>
       </c>
       <c r="AW27" s="13">
-        <v>80398</v>
+        <v>104957</v>
       </c>
       <c r="AX27" s="13">
-        <v>73459</v>
+        <v>25177</v>
       </c>
       <c r="AY27" s="13">
-        <v>104957</v>
+        <v>103593</v>
       </c>
       <c r="AZ27" s="13">
-        <v>25177</v>
+        <v>15067</v>
       </c>
       <c r="BA27" s="13">
-        <v>103593</v>
+        <v>62144</v>
       </c>
       <c r="BB27" s="13">
-        <v>15067</v>
+        <v>117986</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3527,83 +3527,83 @@
       <c r="AA29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>58</v>
+      <c r="AB29" s="11">
+        <v>18501</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>0</v>
       </c>
       <c r="AD29" s="11">
+        <v>18600</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>18500</v>
+      </c>
+      <c r="AF29" s="11">
         <v>18501</v>
-      </c>
-      <c r="AE29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="11">
-        <v>18600</v>
       </c>
       <c r="AG29" s="11">
         <v>18500</v>
       </c>
       <c r="AH29" s="11">
-        <v>18501</v>
+        <v>18500</v>
       </c>
       <c r="AI29" s="11">
         <v>18500</v>
       </c>
       <c r="AJ29" s="11">
+        <v>37000</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>18501</v>
+      </c>
+      <c r="AL29" s="11">
         <v>18500</v>
       </c>
-      <c r="AK29" s="11">
-        <v>18500</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>37000</v>
-      </c>
       <c r="AM29" s="11">
-        <v>18501</v>
+        <v>23001</v>
       </c>
       <c r="AN29" s="11">
-        <v>18500</v>
+        <v>23001</v>
       </c>
       <c r="AO29" s="11">
         <v>23001</v>
       </c>
       <c r="AP29" s="11">
-        <v>23001</v>
+        <v>23000</v>
       </c>
       <c r="AQ29" s="11">
-        <v>23001</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="11">
+        <v>18501</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>26415</v>
+      </c>
+      <c r="AT29" s="11">
+        <v>4703</v>
+      </c>
+      <c r="AU29" s="11">
+        <v>23212</v>
+      </c>
+      <c r="AV29" s="11">
+        <v>41501</v>
+      </c>
+      <c r="AW29" s="11">
         <v>23000</v>
       </c>
-      <c r="AS29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="11">
-        <v>18501</v>
-      </c>
-      <c r="AU29" s="11">
-        <v>26415</v>
-      </c>
-      <c r="AV29" s="11">
-        <v>4703</v>
-      </c>
-      <c r="AW29" s="11">
-        <v>23212</v>
-      </c>
       <c r="AX29" s="11">
-        <v>41501</v>
+        <v>23000</v>
       </c>
       <c r="AY29" s="11">
         <v>23000</v>
       </c>
       <c r="AZ29" s="11">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="11">
-        <v>23000</v>
+        <v>48720</v>
       </c>
       <c r="BB29" s="11">
         <v>0</v>
@@ -3686,86 +3686,86 @@
       <c r="AA30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC30" s="15" t="s">
-        <v>58</v>
+      <c r="AB30" s="15">
+        <v>236691</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>172918</v>
       </c>
       <c r="AD30" s="15">
-        <v>236691</v>
+        <v>240569</v>
       </c>
       <c r="AE30" s="15">
-        <v>172918</v>
+        <v>153087</v>
       </c>
       <c r="AF30" s="15">
-        <v>240569</v>
+        <v>60860</v>
       </c>
       <c r="AG30" s="15">
-        <v>153087</v>
+        <v>211331</v>
       </c>
       <c r="AH30" s="15">
-        <v>60860</v>
+        <v>167544</v>
       </c>
       <c r="AI30" s="15">
-        <v>211331</v>
+        <v>158082</v>
       </c>
       <c r="AJ30" s="15">
-        <v>167544</v>
+        <v>205300</v>
       </c>
       <c r="AK30" s="15">
-        <v>158082</v>
+        <v>118614</v>
       </c>
       <c r="AL30" s="15">
-        <v>205300</v>
+        <v>247354</v>
       </c>
       <c r="AM30" s="15">
-        <v>118614</v>
+        <v>228627</v>
       </c>
       <c r="AN30" s="15">
-        <v>247354</v>
+        <v>156717</v>
       </c>
       <c r="AO30" s="15">
-        <v>228627</v>
+        <v>153030</v>
       </c>
       <c r="AP30" s="15">
-        <v>156717</v>
+        <v>250795</v>
       </c>
       <c r="AQ30" s="15">
-        <v>153030</v>
+        <v>60154</v>
       </c>
       <c r="AR30" s="15">
-        <v>250795</v>
+        <v>91274</v>
       </c>
       <c r="AS30" s="15">
-        <v>60154</v>
+        <v>92665</v>
       </c>
       <c r="AT30" s="15">
-        <v>91274</v>
+        <v>263256</v>
       </c>
       <c r="AU30" s="15">
-        <v>92665</v>
+        <v>119776</v>
       </c>
       <c r="AV30" s="15">
-        <v>263256</v>
+        <v>189100</v>
       </c>
       <c r="AW30" s="15">
-        <v>119776</v>
+        <v>66065</v>
       </c>
       <c r="AX30" s="15">
-        <v>189100</v>
+        <v>277651</v>
       </c>
       <c r="AY30" s="15">
-        <v>66065</v>
+        <v>398497</v>
       </c>
       <c r="AZ30" s="15">
-        <v>277651</v>
+        <v>166706</v>
       </c>
       <c r="BA30" s="15">
-        <v>398497</v>
+        <v>250939</v>
       </c>
       <c r="BB30" s="15">
-        <v>166706</v>
+        <v>160403</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3844,85 +3844,85 @@
         <v>0</v>
       </c>
       <c r="AB31" s="17">
-        <v>0</v>
+        <v>255192</v>
       </c>
       <c r="AC31" s="17">
-        <v>0</v>
+        <v>172918</v>
       </c>
       <c r="AD31" s="17">
-        <v>255192</v>
+        <v>259169</v>
       </c>
       <c r="AE31" s="17">
-        <v>172918</v>
+        <v>171587</v>
       </c>
       <c r="AF31" s="17">
-        <v>259169</v>
+        <v>79361</v>
       </c>
       <c r="AG31" s="17">
-        <v>171587</v>
+        <v>229831</v>
       </c>
       <c r="AH31" s="17">
-        <v>79361</v>
+        <v>186044</v>
       </c>
       <c r="AI31" s="17">
-        <v>229831</v>
+        <v>176582</v>
       </c>
       <c r="AJ31" s="17">
-        <v>186044</v>
+        <v>242300</v>
       </c>
       <c r="AK31" s="17">
-        <v>176582</v>
+        <v>137115</v>
       </c>
       <c r="AL31" s="17">
-        <v>242300</v>
+        <v>265854</v>
       </c>
       <c r="AM31" s="17">
-        <v>137115</v>
+        <v>251628</v>
       </c>
       <c r="AN31" s="17">
-        <v>265854</v>
+        <v>179718</v>
       </c>
       <c r="AO31" s="17">
-        <v>251628</v>
+        <v>176031</v>
       </c>
       <c r="AP31" s="17">
-        <v>179718</v>
+        <v>273795</v>
       </c>
       <c r="AQ31" s="17">
-        <v>176031</v>
+        <v>60154</v>
       </c>
       <c r="AR31" s="17">
-        <v>273795</v>
+        <v>109775</v>
       </c>
       <c r="AS31" s="17">
-        <v>60154</v>
+        <v>119080</v>
       </c>
       <c r="AT31" s="17">
-        <v>109775</v>
+        <v>267959</v>
       </c>
       <c r="AU31" s="17">
-        <v>119080</v>
+        <v>142988</v>
       </c>
       <c r="AV31" s="17">
-        <v>267959</v>
+        <v>230601</v>
       </c>
       <c r="AW31" s="17">
-        <v>142988</v>
+        <v>89065</v>
       </c>
       <c r="AX31" s="17">
-        <v>230601</v>
+        <v>300651</v>
       </c>
       <c r="AY31" s="17">
-        <v>89065</v>
+        <v>421497</v>
       </c>
       <c r="AZ31" s="17">
-        <v>300651</v>
+        <v>166706</v>
       </c>
       <c r="BA31" s="17">
-        <v>421497</v>
+        <v>299659</v>
       </c>
       <c r="BB31" s="17">
-        <v>166706</v>
+        <v>160403</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4057,11 +4057,11 @@
       <c r="AA33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC33" s="17" t="s">
-        <v>58</v>
+      <c r="AB33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="17">
+        <v>0</v>
       </c>
       <c r="AD33" s="17">
         <v>0</v>
@@ -4271,11 +4271,11 @@
       <c r="AA35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB35" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC35" s="17" t="s">
-        <v>58</v>
+      <c r="AB35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>0</v>
       </c>
       <c r="AD35" s="17">
         <v>0</v>
@@ -4429,85 +4429,85 @@
         <v>0</v>
       </c>
       <c r="AB36" s="13">
-        <v>0</v>
+        <v>394488</v>
       </c>
       <c r="AC36" s="13">
-        <v>0</v>
+        <v>269242</v>
       </c>
       <c r="AD36" s="13">
-        <v>394488</v>
+        <v>339778</v>
       </c>
       <c r="AE36" s="13">
-        <v>269242</v>
+        <v>258947</v>
       </c>
       <c r="AF36" s="13">
-        <v>339778</v>
+        <v>224201</v>
       </c>
       <c r="AG36" s="13">
-        <v>258947</v>
+        <v>345753</v>
       </c>
       <c r="AH36" s="13">
-        <v>224201</v>
+        <v>311766</v>
       </c>
       <c r="AI36" s="13">
-        <v>345753</v>
+        <v>273105</v>
       </c>
       <c r="AJ36" s="13">
-        <v>311766</v>
+        <v>287264</v>
       </c>
       <c r="AK36" s="13">
-        <v>273105</v>
+        <v>176179</v>
       </c>
       <c r="AL36" s="13">
-        <v>287264</v>
+        <v>389745</v>
       </c>
       <c r="AM36" s="13">
-        <v>176179</v>
+        <v>367577</v>
       </c>
       <c r="AN36" s="13">
-        <v>389745</v>
+        <v>263347</v>
       </c>
       <c r="AO36" s="13">
-        <v>367577</v>
+        <v>305275</v>
       </c>
       <c r="AP36" s="13">
-        <v>263347</v>
+        <v>360777</v>
       </c>
       <c r="AQ36" s="13">
-        <v>305275</v>
+        <v>142910</v>
       </c>
       <c r="AR36" s="13">
-        <v>360777</v>
+        <v>200065</v>
       </c>
       <c r="AS36" s="13">
-        <v>142910</v>
+        <v>243183</v>
       </c>
       <c r="AT36" s="13">
-        <v>200065</v>
+        <v>332313</v>
       </c>
       <c r="AU36" s="13">
-        <v>243183</v>
+        <v>223386</v>
       </c>
       <c r="AV36" s="13">
-        <v>332313</v>
+        <v>304060</v>
       </c>
       <c r="AW36" s="13">
-        <v>223386</v>
+        <v>194022</v>
       </c>
       <c r="AX36" s="13">
-        <v>304060</v>
+        <v>325828</v>
       </c>
       <c r="AY36" s="13">
-        <v>194022</v>
+        <v>525090</v>
       </c>
       <c r="AZ36" s="13">
-        <v>325828</v>
+        <v>181773</v>
       </c>
       <c r="BA36" s="13">
-        <v>525090</v>
+        <v>361803</v>
       </c>
       <c r="BB36" s="13">
-        <v>181773</v>
+        <v>278389</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5021,86 +5021,86 @@
       <c r="AA43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC43" s="11" t="s">
-        <v>58</v>
+      <c r="AB43" s="11">
+        <v>5016249</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>3478397</v>
       </c>
       <c r="AD43" s="11">
-        <v>5016249</v>
+        <v>2916769</v>
       </c>
       <c r="AE43" s="11">
-        <v>3478397</v>
+        <v>3164249</v>
       </c>
       <c r="AF43" s="11">
-        <v>2916769</v>
+        <v>5255871</v>
       </c>
       <c r="AG43" s="11">
-        <v>3164249</v>
+        <v>4480431</v>
       </c>
       <c r="AH43" s="11">
-        <v>5255871</v>
+        <v>5789926</v>
       </c>
       <c r="AI43" s="11">
-        <v>4480431</v>
+        <v>4443824</v>
       </c>
       <c r="AJ43" s="11">
-        <v>5789926</v>
+        <v>2081818</v>
       </c>
       <c r="AK43" s="11">
-        <v>4443824</v>
+        <v>1810114</v>
       </c>
       <c r="AL43" s="11">
-        <v>2081818</v>
+        <v>5703934</v>
       </c>
       <c r="AM43" s="11">
-        <v>1810114</v>
+        <v>5355896</v>
       </c>
       <c r="AN43" s="11">
-        <v>5703934</v>
+        <v>7544868</v>
       </c>
       <c r="AO43" s="11">
-        <v>5355896</v>
+        <v>11692279</v>
       </c>
       <c r="AP43" s="11">
-        <v>7544868</v>
+        <v>7876165</v>
       </c>
       <c r="AQ43" s="11">
-        <v>11692279</v>
+        <v>7480370</v>
       </c>
       <c r="AR43" s="11">
-        <v>7876165</v>
+        <v>8145786</v>
       </c>
       <c r="AS43" s="11">
-        <v>7480370</v>
+        <v>11218208</v>
       </c>
       <c r="AT43" s="11">
-        <v>8145786</v>
+        <v>9329680</v>
       </c>
       <c r="AU43" s="11">
-        <v>11218208</v>
+        <v>7583363</v>
       </c>
       <c r="AV43" s="11">
-        <v>9329680</v>
+        <v>8579900</v>
       </c>
       <c r="AW43" s="11">
-        <v>11674310</v>
+        <v>12247937</v>
       </c>
       <c r="AX43" s="11">
-        <v>8579900</v>
+        <v>514026</v>
       </c>
       <c r="AY43" s="11">
-        <v>12247937</v>
+        <v>11366476</v>
       </c>
       <c r="AZ43" s="11">
-        <v>2936177</v>
+        <v>1652888</v>
       </c>
       <c r="BA43" s="11">
-        <v>11366476</v>
+        <v>6821798</v>
       </c>
       <c r="BB43" s="11">
-        <v>1652888</v>
+        <v>12938018</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5179,85 +5179,85 @@
         <v>0</v>
       </c>
       <c r="AB44" s="13">
-        <v>0</v>
+        <v>5016249</v>
       </c>
       <c r="AC44" s="13">
-        <v>0</v>
+        <v>3478397</v>
       </c>
       <c r="AD44" s="13">
-        <v>5016249</v>
+        <v>2916769</v>
       </c>
       <c r="AE44" s="13">
-        <v>3478397</v>
+        <v>3164249</v>
       </c>
       <c r="AF44" s="13">
-        <v>2916769</v>
+        <v>5255871</v>
       </c>
       <c r="AG44" s="13">
-        <v>3164249</v>
+        <v>4480431</v>
       </c>
       <c r="AH44" s="13">
-        <v>5255871</v>
+        <v>5789926</v>
       </c>
       <c r="AI44" s="13">
-        <v>4480431</v>
+        <v>4443824</v>
       </c>
       <c r="AJ44" s="13">
-        <v>5789926</v>
+        <v>2081818</v>
       </c>
       <c r="AK44" s="13">
-        <v>4443824</v>
+        <v>1810114</v>
       </c>
       <c r="AL44" s="13">
-        <v>2081818</v>
+        <v>5703934</v>
       </c>
       <c r="AM44" s="13">
-        <v>1810114</v>
+        <v>5355896</v>
       </c>
       <c r="AN44" s="13">
-        <v>5703934</v>
+        <v>7544868</v>
       </c>
       <c r="AO44" s="13">
-        <v>5355896</v>
+        <v>11692279</v>
       </c>
       <c r="AP44" s="13">
-        <v>7544868</v>
+        <v>7876165</v>
       </c>
       <c r="AQ44" s="13">
-        <v>11692279</v>
+        <v>7480370</v>
       </c>
       <c r="AR44" s="13">
-        <v>7876165</v>
+        <v>8145786</v>
       </c>
       <c r="AS44" s="13">
-        <v>7480370</v>
+        <v>11218208</v>
       </c>
       <c r="AT44" s="13">
-        <v>8145786</v>
+        <v>9329680</v>
       </c>
       <c r="AU44" s="13">
-        <v>11218208</v>
+        <v>7583363</v>
       </c>
       <c r="AV44" s="13">
-        <v>9329680</v>
+        <v>8579900</v>
       </c>
       <c r="AW44" s="13">
-        <v>11674310</v>
+        <v>12247937</v>
       </c>
       <c r="AX44" s="13">
-        <v>8579900</v>
+        <v>514026</v>
       </c>
       <c r="AY44" s="13">
-        <v>12247937</v>
+        <v>11366476</v>
       </c>
       <c r="AZ44" s="13">
-        <v>2936177</v>
+        <v>1652888</v>
       </c>
       <c r="BA44" s="13">
-        <v>11366476</v>
+        <v>6821798</v>
       </c>
       <c r="BB44" s="13">
-        <v>1652888</v>
+        <v>12938018</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5394,83 +5394,83 @@
       <c r="AA46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC46" s="11" t="s">
-        <v>58</v>
+      <c r="AB46" s="11">
+        <v>480194</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>0</v>
       </c>
       <c r="AD46" s="11">
-        <v>480194</v>
+        <v>520445</v>
       </c>
       <c r="AE46" s="11">
-        <v>0</v>
+        <v>519871</v>
       </c>
       <c r="AF46" s="11">
-        <v>520445</v>
+        <v>470099</v>
       </c>
       <c r="AG46" s="11">
-        <v>519871</v>
+        <v>499180</v>
       </c>
       <c r="AH46" s="11">
-        <v>470099</v>
+        <v>542905</v>
       </c>
       <c r="AI46" s="11">
-        <v>499180</v>
+        <v>667817</v>
       </c>
       <c r="AJ46" s="11">
-        <v>542905</v>
+        <v>1403401</v>
       </c>
       <c r="AK46" s="11">
-        <v>667817</v>
+        <v>863514</v>
       </c>
       <c r="AL46" s="11">
-        <v>1403401</v>
+        <v>1299998</v>
       </c>
       <c r="AM46" s="11">
-        <v>863514</v>
+        <v>2091308</v>
       </c>
       <c r="AN46" s="11">
-        <v>1299998</v>
+        <v>2155701</v>
       </c>
       <c r="AO46" s="11">
-        <v>2091308</v>
+        <v>2142954</v>
       </c>
       <c r="AP46" s="11">
-        <v>2155701</v>
+        <v>2867672</v>
       </c>
       <c r="AQ46" s="11">
-        <v>2142954</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="11">
-        <v>2867672</v>
+        <v>2299761</v>
       </c>
       <c r="AS46" s="11">
-        <v>0</v>
+        <v>3565180</v>
       </c>
       <c r="AT46" s="11">
-        <v>2299761</v>
+        <v>850906</v>
       </c>
       <c r="AU46" s="11">
-        <v>3565180</v>
+        <v>4851537</v>
       </c>
       <c r="AV46" s="11">
-        <v>850906</v>
+        <v>8485322</v>
       </c>
       <c r="AW46" s="11">
-        <v>4851537</v>
+        <v>4572232</v>
       </c>
       <c r="AX46" s="11">
-        <v>8485322</v>
+        <v>4435078</v>
       </c>
       <c r="AY46" s="11">
-        <v>4572232</v>
+        <v>4299510</v>
       </c>
       <c r="AZ46" s="11">
-        <v>4435078</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="11">
-        <v>4299510</v>
+        <v>9197732</v>
       </c>
       <c r="BB46" s="11">
         <v>0</v>
@@ -5553,86 +5553,86 @@
       <c r="AA47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC47" s="15" t="s">
-        <v>58</v>
+      <c r="AB47" s="15">
+        <v>11349907</v>
+      </c>
+      <c r="AC47" s="15">
+        <v>9306413</v>
       </c>
       <c r="AD47" s="15">
-        <v>11349907</v>
+        <v>13468821</v>
       </c>
       <c r="AE47" s="15">
-        <v>9306413</v>
+        <v>8238245</v>
       </c>
       <c r="AF47" s="15">
-        <v>13468821</v>
+        <v>3074881</v>
       </c>
       <c r="AG47" s="15">
-        <v>8238245</v>
+        <v>13793781</v>
       </c>
       <c r="AH47" s="15">
-        <v>3074881</v>
+        <v>11517579</v>
       </c>
       <c r="AI47" s="15">
-        <v>13793781</v>
+        <v>9573557</v>
       </c>
       <c r="AJ47" s="15">
-        <v>11517579</v>
+        <v>11913365</v>
       </c>
       <c r="AK47" s="15">
-        <v>9573557</v>
+        <v>7722236</v>
       </c>
       <c r="AL47" s="15">
-        <v>11913365</v>
+        <v>18094716</v>
       </c>
       <c r="AM47" s="15">
-        <v>7722236</v>
+        <v>18190257</v>
       </c>
       <c r="AN47" s="15">
-        <v>18094716</v>
+        <v>13768966</v>
       </c>
       <c r="AO47" s="15">
-        <v>18190257</v>
+        <v>13441722</v>
       </c>
       <c r="AP47" s="15">
-        <v>13768966</v>
+        <v>32897055</v>
       </c>
       <c r="AQ47" s="15">
-        <v>13441722</v>
+        <v>10798667</v>
       </c>
       <c r="AR47" s="15">
-        <v>32897055</v>
+        <v>10332081</v>
       </c>
       <c r="AS47" s="15">
-        <v>10798667</v>
+        <v>12746961</v>
       </c>
       <c r="AT47" s="15">
-        <v>10273562</v>
+        <v>38680264</v>
       </c>
       <c r="AU47" s="15">
-        <v>12746961</v>
+        <v>22595477</v>
       </c>
       <c r="AV47" s="15">
-        <v>38680264</v>
+        <v>27103528</v>
       </c>
       <c r="AW47" s="15">
-        <v>22595477</v>
+        <v>8438731</v>
       </c>
       <c r="AX47" s="15">
-        <v>27103528</v>
+        <v>37181793</v>
       </c>
       <c r="AY47" s="15">
-        <v>8438731</v>
+        <v>59093219</v>
       </c>
       <c r="AZ47" s="15">
-        <v>37162348</v>
+        <v>26169649</v>
       </c>
       <c r="BA47" s="15">
-        <v>59093219</v>
+        <v>33756853</v>
       </c>
       <c r="BB47" s="15">
-        <v>26169649</v>
+        <v>20305874</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5711,85 +5711,85 @@
         <v>0</v>
       </c>
       <c r="AB48" s="17">
-        <v>0</v>
+        <v>11830101</v>
       </c>
       <c r="AC48" s="17">
-        <v>0</v>
+        <v>9306413</v>
       </c>
       <c r="AD48" s="17">
-        <v>11830101</v>
+        <v>13989266</v>
       </c>
       <c r="AE48" s="17">
-        <v>9306413</v>
+        <v>8758116</v>
       </c>
       <c r="AF48" s="17">
-        <v>13989266</v>
+        <v>3544980</v>
       </c>
       <c r="AG48" s="17">
-        <v>8758116</v>
+        <v>14292961</v>
       </c>
       <c r="AH48" s="17">
-        <v>3544980</v>
+        <v>12060484</v>
       </c>
       <c r="AI48" s="17">
-        <v>14292961</v>
+        <v>10241374</v>
       </c>
       <c r="AJ48" s="17">
-        <v>12060484</v>
+        <v>13316766</v>
       </c>
       <c r="AK48" s="17">
-        <v>10241374</v>
+        <v>8585750</v>
       </c>
       <c r="AL48" s="17">
-        <v>13316766</v>
+        <v>19394714</v>
       </c>
       <c r="AM48" s="17">
-        <v>8585750</v>
+        <v>20281565</v>
       </c>
       <c r="AN48" s="17">
-        <v>19394714</v>
+        <v>15924667</v>
       </c>
       <c r="AO48" s="17">
-        <v>20281565</v>
+        <v>15584676</v>
       </c>
       <c r="AP48" s="17">
-        <v>15924667</v>
+        <v>35764727</v>
       </c>
       <c r="AQ48" s="17">
-        <v>15584676</v>
+        <v>10798667</v>
       </c>
       <c r="AR48" s="17">
-        <v>35764727</v>
+        <v>12631842</v>
       </c>
       <c r="AS48" s="17">
-        <v>10798667</v>
+        <v>16312141</v>
       </c>
       <c r="AT48" s="17">
-        <v>12573323</v>
+        <v>39531170</v>
       </c>
       <c r="AU48" s="17">
-        <v>16312141</v>
+        <v>27447014</v>
       </c>
       <c r="AV48" s="17">
-        <v>39531170</v>
+        <v>35588850</v>
       </c>
       <c r="AW48" s="17">
-        <v>27447014</v>
+        <v>13010963</v>
       </c>
       <c r="AX48" s="17">
-        <v>35588850</v>
+        <v>41616871</v>
       </c>
       <c r="AY48" s="17">
-        <v>13010963</v>
+        <v>63392729</v>
       </c>
       <c r="AZ48" s="17">
-        <v>41597426</v>
+        <v>26169649</v>
       </c>
       <c r="BA48" s="17">
-        <v>63392729</v>
+        <v>42954585</v>
       </c>
       <c r="BB48" s="17">
-        <v>26169649</v>
+        <v>20305874</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -5926,11 +5926,11 @@
       <c r="AA50" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC50" s="17" t="s">
-        <v>58</v>
+      <c r="AB50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="17">
+        <v>0</v>
       </c>
       <c r="AD50" s="17">
         <v>0</v>
@@ -6142,11 +6142,11 @@
       <c r="AA52" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB52" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC52" s="17" t="s">
-        <v>58</v>
+      <c r="AB52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="17">
+        <v>0</v>
       </c>
       <c r="AD52" s="17">
         <v>0</v>
@@ -6358,11 +6358,11 @@
       <c r="AA54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC54" s="11" t="s">
-        <v>58</v>
+      <c r="AB54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="11">
+        <v>0</v>
       </c>
       <c r="AD54" s="11">
         <v>0</v>
@@ -6516,85 +6516,85 @@
         <v>0</v>
       </c>
       <c r="AB55" s="13">
-        <v>0</v>
+        <v>16846350</v>
       </c>
       <c r="AC55" s="13">
-        <v>0</v>
+        <v>12784810</v>
       </c>
       <c r="AD55" s="13">
-        <v>16846350</v>
+        <v>16906035</v>
       </c>
       <c r="AE55" s="13">
-        <v>12784810</v>
+        <v>11922365</v>
       </c>
       <c r="AF55" s="13">
-        <v>16906035</v>
+        <v>8800851</v>
       </c>
       <c r="AG55" s="13">
-        <v>11922365</v>
+        <v>18773392</v>
       </c>
       <c r="AH55" s="13">
-        <v>8800851</v>
+        <v>17850410</v>
       </c>
       <c r="AI55" s="13">
-        <v>18773392</v>
+        <v>14685198</v>
       </c>
       <c r="AJ55" s="13">
-        <v>17850410</v>
+        <v>15398584</v>
       </c>
       <c r="AK55" s="13">
-        <v>14685198</v>
+        <v>10395864</v>
       </c>
       <c r="AL55" s="13">
-        <v>15398584</v>
+        <v>25098648</v>
       </c>
       <c r="AM55" s="13">
-        <v>10395864</v>
+        <v>25637461</v>
       </c>
       <c r="AN55" s="13">
-        <v>25098648</v>
+        <v>23469535</v>
       </c>
       <c r="AO55" s="13">
-        <v>25637461</v>
+        <v>27276955</v>
       </c>
       <c r="AP55" s="13">
-        <v>23469535</v>
+        <v>43640892</v>
       </c>
       <c r="AQ55" s="13">
-        <v>27276955</v>
+        <v>18279037</v>
       </c>
       <c r="AR55" s="13">
-        <v>43640892</v>
+        <v>20777628</v>
       </c>
       <c r="AS55" s="13">
-        <v>18279037</v>
+        <v>27530349</v>
       </c>
       <c r="AT55" s="13">
-        <v>20719109</v>
+        <v>48860850</v>
       </c>
       <c r="AU55" s="13">
-        <v>27530349</v>
+        <v>35030377</v>
       </c>
       <c r="AV55" s="13">
-        <v>48860850</v>
+        <v>44168750</v>
       </c>
       <c r="AW55" s="13">
-        <v>39121324</v>
+        <v>25258900</v>
       </c>
       <c r="AX55" s="13">
-        <v>44168750</v>
+        <v>42130897</v>
       </c>
       <c r="AY55" s="13">
-        <v>25258900</v>
+        <v>74759205</v>
       </c>
       <c r="AZ55" s="13">
-        <v>44533603</v>
+        <v>27822537</v>
       </c>
       <c r="BA55" s="13">
-        <v>74759205</v>
+        <v>49776383</v>
       </c>
       <c r="BB55" s="13">
-        <v>27822537</v>
+        <v>33243892</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7108,86 +7108,86 @@
       <c r="AA62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC62" s="11" t="s">
-        <v>58</v>
+      <c r="AB62" s="11">
+        <v>36011436</v>
+      </c>
+      <c r="AC62" s="11">
+        <v>36111426</v>
       </c>
       <c r="AD62" s="11">
-        <v>36011436</v>
+        <v>36184161</v>
       </c>
       <c r="AE62" s="11">
-        <v>36111426</v>
+        <v>36220799</v>
       </c>
       <c r="AF62" s="11">
-        <v>36184161</v>
+        <v>36287428</v>
       </c>
       <c r="AG62" s="11">
-        <v>36220799</v>
+        <v>38650394</v>
       </c>
       <c r="AH62" s="11">
-        <v>36287428</v>
+        <v>46053404</v>
       </c>
       <c r="AI62" s="11">
-        <v>38650394</v>
+        <v>46039017</v>
       </c>
       <c r="AJ62" s="11">
-        <v>46053404</v>
+        <v>46299662</v>
       </c>
       <c r="AK62" s="11">
-        <v>46039017</v>
+        <v>46337139</v>
       </c>
       <c r="AL62" s="11">
-        <v>46299662</v>
+        <v>46039938</v>
       </c>
       <c r="AM62" s="11">
-        <v>46337139</v>
+        <v>46191826</v>
       </c>
       <c r="AN62" s="11">
-        <v>46039938</v>
+        <v>90218321</v>
       </c>
       <c r="AO62" s="11">
-        <v>46191826</v>
+        <v>90466706</v>
       </c>
       <c r="AP62" s="11">
-        <v>90218321</v>
+        <v>90549367</v>
       </c>
       <c r="AQ62" s="11">
-        <v>90466706</v>
+        <v>90390667</v>
       </c>
       <c r="AR62" s="11">
-        <v>90549367</v>
+        <v>90218031</v>
       </c>
       <c r="AS62" s="11">
-        <v>90390667</v>
+        <v>90394334</v>
       </c>
       <c r="AT62" s="11">
-        <v>90218031</v>
+        <v>144974361</v>
       </c>
       <c r="AU62" s="11">
-        <v>90394334</v>
+        <v>139691254</v>
       </c>
       <c r="AV62" s="11">
-        <v>144974361</v>
+        <v>116798486</v>
       </c>
       <c r="AW62" s="11">
-        <v>145206473</v>
+        <v>116694808</v>
       </c>
       <c r="AX62" s="11">
-        <v>116798486</v>
+        <v>20416491</v>
       </c>
       <c r="AY62" s="11">
-        <v>116694808</v>
+        <v>109722433</v>
       </c>
       <c r="AZ62" s="11">
-        <v>116621400</v>
+        <v>109702529</v>
       </c>
       <c r="BA62" s="11">
-        <v>109722433</v>
+        <v>109774041</v>
       </c>
       <c r="BB62" s="11">
-        <v>109702529</v>
+        <v>109657231</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -7324,83 +7324,83 @@
       <c r="AA64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB64" s="11" t="s">
-        <v>58</v>
+      <c r="AB64" s="11">
+        <v>25955029</v>
       </c>
       <c r="AC64" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AD64" s="11">
-        <v>25955029</v>
-      </c>
-      <c r="AE64" s="11" t="s">
-        <v>58</v>
+        <v>27980914</v>
+      </c>
+      <c r="AE64" s="11">
+        <v>28101135</v>
       </c>
       <c r="AF64" s="11">
-        <v>27980914</v>
+        <v>25409383</v>
       </c>
       <c r="AG64" s="11">
-        <v>28101135</v>
+        <v>26982703</v>
       </c>
       <c r="AH64" s="11">
-        <v>25409383</v>
+        <v>29346216</v>
       </c>
       <c r="AI64" s="11">
-        <v>26982703</v>
+        <v>36098216</v>
       </c>
       <c r="AJ64" s="11">
-        <v>29346216</v>
+        <v>37929757</v>
       </c>
       <c r="AK64" s="11">
-        <v>36098216</v>
+        <v>46673910</v>
       </c>
       <c r="AL64" s="11">
-        <v>37929757</v>
+        <v>70270162</v>
       </c>
       <c r="AM64" s="11">
-        <v>46673910</v>
+        <v>90922482</v>
       </c>
       <c r="AN64" s="11">
-        <v>70270162</v>
+        <v>93722056</v>
       </c>
       <c r="AO64" s="11">
-        <v>90922482</v>
+        <v>93167862</v>
       </c>
       <c r="AP64" s="11">
-        <v>93722056</v>
-      </c>
-      <c r="AQ64" s="11">
-        <v>93167862</v>
+        <v>124681391</v>
+      </c>
+      <c r="AQ64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR64" s="11">
-        <v>124681391</v>
-      </c>
-      <c r="AS64" s="11" t="s">
-        <v>58</v>
+        <v>124304686</v>
+      </c>
+      <c r="AS64" s="11">
+        <v>134968011</v>
       </c>
       <c r="AT64" s="11">
-        <v>124304686</v>
+        <v>180928344</v>
       </c>
       <c r="AU64" s="11">
-        <v>134968011</v>
+        <v>209009866</v>
       </c>
       <c r="AV64" s="11">
-        <v>180928344</v>
+        <v>204460664</v>
       </c>
       <c r="AW64" s="11">
-        <v>209009866</v>
+        <v>198792696</v>
       </c>
       <c r="AX64" s="11">
-        <v>204460664</v>
+        <v>192829478</v>
       </c>
       <c r="AY64" s="11">
-        <v>198792696</v>
-      </c>
-      <c r="AZ64" s="11">
-        <v>192829478</v>
+        <v>186935217</v>
+      </c>
+      <c r="AZ64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA64" s="11">
-        <v>186935217</v>
+        <v>188787603</v>
       </c>
       <c r="BB64" s="11" t="s">
         <v>58</v>
@@ -7483,86 +7483,86 @@
       <c r="AA65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC65" s="15" t="s">
-        <v>58</v>
+      <c r="AB65" s="15">
+        <v>47952423</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>53819805</v>
       </c>
       <c r="AD65" s="15">
-        <v>47952423</v>
+        <v>55987351</v>
       </c>
       <c r="AE65" s="15">
-        <v>53819805</v>
+        <v>53814138</v>
       </c>
       <c r="AF65" s="15">
-        <v>55987351</v>
+        <v>50523842</v>
       </c>
       <c r="AG65" s="15">
-        <v>53814138</v>
+        <v>65270978</v>
       </c>
       <c r="AH65" s="15">
-        <v>50523842</v>
+        <v>68743608</v>
       </c>
       <c r="AI65" s="15">
-        <v>65270978</v>
+        <v>60560703</v>
       </c>
       <c r="AJ65" s="15">
-        <v>68743608</v>
+        <v>58029055</v>
       </c>
       <c r="AK65" s="15">
-        <v>60560703</v>
+        <v>65103917</v>
       </c>
       <c r="AL65" s="15">
-        <v>58029055</v>
+        <v>73153117</v>
       </c>
       <c r="AM65" s="15">
-        <v>65103917</v>
+        <v>79563031</v>
       </c>
       <c r="AN65" s="15">
-        <v>73153117</v>
+        <v>87858790</v>
       </c>
       <c r="AO65" s="15">
-        <v>79563031</v>
+        <v>87837169</v>
       </c>
       <c r="AP65" s="15">
-        <v>87858790</v>
+        <v>131171096</v>
       </c>
       <c r="AQ65" s="15">
-        <v>87837169</v>
+        <v>179517023</v>
       </c>
       <c r="AR65" s="15">
-        <v>131171096</v>
+        <v>112639570</v>
       </c>
       <c r="AS65" s="15">
-        <v>179517023</v>
+        <v>137559607</v>
       </c>
       <c r="AT65" s="15">
-        <v>112557377</v>
+        <v>146930228</v>
       </c>
       <c r="AU65" s="15">
-        <v>137559607</v>
+        <v>188647784</v>
       </c>
       <c r="AV65" s="15">
-        <v>146930228</v>
+        <v>143329075</v>
       </c>
       <c r="AW65" s="15">
-        <v>188647784</v>
+        <v>127733762</v>
       </c>
       <c r="AX65" s="15">
-        <v>143329075</v>
+        <v>133915574</v>
       </c>
       <c r="AY65" s="15">
-        <v>127733762</v>
+        <v>148290248</v>
       </c>
       <c r="AZ65" s="15">
-        <v>133845540</v>
+        <v>156980847</v>
       </c>
       <c r="BA65" s="15">
-        <v>148290248</v>
+        <v>134522147</v>
       </c>
       <c r="BB65" s="15">
-        <v>156980847</v>
+        <v>126592857</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/urea/shapdis/product/monthly_seprated.xlsx
+++ b/database/industries/urea/shapdis/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="88">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3379,98 +3379,98 @@
       <c r="W11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>58</v>
+      <c r="X11" s="13" t="n">
+        <v>283237</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>283237</v>
+        <v>286485</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>286485</v>
+        <v>279469</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>279469</v>
+        <v>216906</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>216906</v>
+        <v>279355</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>279355</v>
+        <v>267862</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>267862</v>
+        <v>299911</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>299911</v>
+        <v>277491</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>277491</v>
+        <v>283304</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>283304</v>
+        <v>258736</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>258736</v>
+        <v>279802</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>279802</v>
+        <v>280120</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>280120</v>
+        <v>282960</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>282960</v>
+        <v>280272</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>280272</v>
+        <v>210275</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>210275</v>
+        <v>163163</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>163163</v>
+        <v>188746</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>188746</v>
+        <v>272791</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>272791</v>
+        <v>295487</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>295487</v>
+        <v>293527</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>293527</v>
+        <v>258459</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>258459</v>
+        <v>270113</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>270113</v>
+        <v>280799</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>280799</v>
+        <v>291318</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>291318</v>
+        <v>286177</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>286177</v>
+        <v>230526</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>230526</v>
+        <v>251480</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>251480</v>
+        <v>197201</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>197201</v>
+        <v>119696</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>119696</v>
+        <v>199729</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>199729</v>
+        <v>284077</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,8 +3622,8 @@
       <c r="AY12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ12" s="16" t="s">
-        <v>58</v>
+      <c r="AZ12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA12" s="16" t="n">
         <v>0</v>
@@ -3781,8 +3781,8 @@
       <c r="AY13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ13" s="13" t="s">
-        <v>58</v>
+      <c r="AZ13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA13" s="13" t="n">
         <v>0</v>
@@ -3855,97 +3855,97 @@
         <v>0</v>
       </c>
       <c r="X14" s="18" t="n">
-        <v>0</v>
+        <v>283237</v>
       </c>
       <c r="Y14" s="18" t="n">
-        <v>283237</v>
+        <v>286485</v>
       </c>
       <c r="Z14" s="18" t="n">
-        <v>286485</v>
+        <v>279469</v>
       </c>
       <c r="AA14" s="18" t="n">
-        <v>279469</v>
+        <v>216906</v>
       </c>
       <c r="AB14" s="18" t="n">
-        <v>216906</v>
+        <v>279355</v>
       </c>
       <c r="AC14" s="18" t="n">
-        <v>279355</v>
+        <v>267862</v>
       </c>
       <c r="AD14" s="18" t="n">
-        <v>267862</v>
+        <v>299911</v>
       </c>
       <c r="AE14" s="18" t="n">
-        <v>299911</v>
+        <v>277491</v>
       </c>
       <c r="AF14" s="18" t="n">
-        <v>277491</v>
+        <v>283304</v>
       </c>
       <c r="AG14" s="18" t="n">
-        <v>283304</v>
+        <v>258736</v>
       </c>
       <c r="AH14" s="18" t="n">
-        <v>258736</v>
+        <v>279802</v>
       </c>
       <c r="AI14" s="18" t="n">
-        <v>279802</v>
+        <v>280120</v>
       </c>
       <c r="AJ14" s="18" t="n">
-        <v>280120</v>
+        <v>282960</v>
       </c>
       <c r="AK14" s="18" t="n">
-        <v>282960</v>
+        <v>280272</v>
       </c>
       <c r="AL14" s="18" t="n">
-        <v>280272</v>
+        <v>210275</v>
       </c>
       <c r="AM14" s="18" t="n">
-        <v>210275</v>
+        <v>163163</v>
       </c>
       <c r="AN14" s="18" t="n">
-        <v>163163</v>
+        <v>188746</v>
       </c>
       <c r="AO14" s="18" t="n">
-        <v>188746</v>
+        <v>272791</v>
       </c>
       <c r="AP14" s="18" t="n">
-        <v>272791</v>
+        <v>295487</v>
       </c>
       <c r="AQ14" s="18" t="n">
-        <v>295487</v>
+        <v>293527</v>
       </c>
       <c r="AR14" s="18" t="n">
-        <v>293527</v>
+        <v>258459</v>
       </c>
       <c r="AS14" s="18" t="n">
-        <v>258459</v>
+        <v>270113</v>
       </c>
       <c r="AT14" s="18" t="n">
-        <v>270113</v>
+        <v>280799</v>
       </c>
       <c r="AU14" s="18" t="n">
-        <v>280799</v>
+        <v>291318</v>
       </c>
       <c r="AV14" s="18" t="n">
-        <v>291318</v>
+        <v>286177</v>
       </c>
       <c r="AW14" s="18" t="n">
-        <v>286177</v>
+        <v>230526</v>
       </c>
       <c r="AX14" s="18" t="n">
-        <v>230526</v>
+        <v>251480</v>
       </c>
       <c r="AY14" s="18" t="n">
-        <v>251480</v>
+        <v>197201</v>
       </c>
       <c r="AZ14" s="18" t="n">
-        <v>197201</v>
+        <v>119696</v>
       </c>
       <c r="BA14" s="18" t="n">
-        <v>119696</v>
+        <v>199729</v>
       </c>
       <c r="BB14" s="18" t="n">
-        <v>199729</v>
+        <v>284077</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,98 +4070,98 @@
       <c r="W16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="X16" s="13" t="n">
+        <v>180235</v>
       </c>
       <c r="Y16" s="13" t="n">
-        <v>180235</v>
+        <v>177449</v>
       </c>
       <c r="Z16" s="13" t="n">
-        <v>177449</v>
+        <v>168304</v>
       </c>
       <c r="AA16" s="13" t="n">
-        <v>168304</v>
+        <v>134863</v>
       </c>
       <c r="AB16" s="13" t="n">
-        <v>134863</v>
+        <v>179834</v>
       </c>
       <c r="AC16" s="13" t="n">
-        <v>179834</v>
+        <v>169858</v>
       </c>
       <c r="AD16" s="13" t="n">
-        <v>169858</v>
+        <v>191388</v>
       </c>
       <c r="AE16" s="13" t="n">
-        <v>191388</v>
+        <v>179313</v>
       </c>
       <c r="AF16" s="13" t="n">
-        <v>179313</v>
+        <v>183529</v>
       </c>
       <c r="AG16" s="13" t="n">
-        <v>183529</v>
+        <v>164775</v>
       </c>
       <c r="AH16" s="13" t="n">
-        <v>164775</v>
+        <v>178647</v>
       </c>
       <c r="AI16" s="13" t="n">
-        <v>178647</v>
+        <v>180718</v>
       </c>
       <c r="AJ16" s="13" t="n">
-        <v>180718</v>
+        <v>182476</v>
       </c>
       <c r="AK16" s="13" t="n">
-        <v>182476</v>
+        <v>184015</v>
       </c>
       <c r="AL16" s="13" t="n">
-        <v>184015</v>
+        <v>134757</v>
       </c>
       <c r="AM16" s="13" t="n">
-        <v>134757</v>
+        <v>116691</v>
       </c>
       <c r="AN16" s="13" t="n">
-        <v>116691</v>
+        <v>126726</v>
       </c>
       <c r="AO16" s="13" t="n">
-        <v>126726</v>
+        <v>178333</v>
       </c>
       <c r="AP16" s="13" t="n">
-        <v>178333</v>
+        <v>187614</v>
       </c>
       <c r="AQ16" s="13" t="n">
-        <v>187614</v>
+        <v>180706</v>
       </c>
       <c r="AR16" s="13" t="n">
-        <v>180706</v>
+        <v>179516</v>
       </c>
       <c r="AS16" s="13" t="n">
-        <v>179516</v>
+        <v>176477</v>
       </c>
       <c r="AT16" s="13" t="n">
-        <v>176477</v>
+        <v>178057</v>
       </c>
       <c r="AU16" s="13" t="n">
-        <v>178057</v>
+        <v>187285</v>
       </c>
       <c r="AV16" s="13" t="n">
-        <v>187285</v>
+        <v>180385</v>
       </c>
       <c r="AW16" s="13" t="n">
-        <v>180385</v>
+        <v>145998</v>
       </c>
       <c r="AX16" s="13" t="n">
-        <v>145998</v>
+        <v>159553</v>
       </c>
       <c r="AY16" s="13" t="n">
-        <v>159553</v>
+        <v>125374</v>
       </c>
       <c r="AZ16" s="13" t="n">
-        <v>125374</v>
+        <v>117528</v>
       </c>
       <c r="BA16" s="13" t="n">
-        <v>117528</v>
+        <v>149772</v>
       </c>
       <c r="BB16" s="13" t="n">
-        <v>149772</v>
+        <v>192940</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,8 +4229,8 @@
       <c r="W17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="16" t="s">
-        <v>58</v>
+      <c r="X17" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y17" s="16" t="n">
         <v>0</v>
@@ -4316,8 +4316,8 @@
       <c r="AZ17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BA17" s="16" t="n">
-        <v>0</v>
+      <c r="BA17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB17" s="16" t="s">
         <v>58</v>
@@ -4472,8 +4472,8 @@
       <c r="AY18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ18" s="13" t="s">
-        <v>58</v>
+      <c r="AZ18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA18" s="13" t="n">
         <v>0</v>
@@ -4546,97 +4546,97 @@
         <v>0</v>
       </c>
       <c r="X19" s="18" t="n">
-        <v>0</v>
+        <v>180235</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>180235</v>
+        <v>177449</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>177449</v>
+        <v>168304</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>168304</v>
+        <v>134863</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>134863</v>
+        <v>179834</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>179834</v>
+        <v>169858</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>169858</v>
+        <v>191388</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>191388</v>
+        <v>179313</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>179313</v>
+        <v>183529</v>
       </c>
       <c r="AG19" s="18" t="n">
-        <v>183529</v>
+        <v>164775</v>
       </c>
       <c r="AH19" s="18" t="n">
-        <v>164775</v>
+        <v>178647</v>
       </c>
       <c r="AI19" s="18" t="n">
-        <v>178647</v>
+        <v>180718</v>
       </c>
       <c r="AJ19" s="18" t="n">
-        <v>180718</v>
+        <v>182476</v>
       </c>
       <c r="AK19" s="18" t="n">
-        <v>182476</v>
+        <v>184015</v>
       </c>
       <c r="AL19" s="18" t="n">
-        <v>184015</v>
+        <v>134757</v>
       </c>
       <c r="AM19" s="18" t="n">
-        <v>134757</v>
+        <v>116691</v>
       </c>
       <c r="AN19" s="18" t="n">
-        <v>116691</v>
+        <v>126726</v>
       </c>
       <c r="AO19" s="18" t="n">
-        <v>126726</v>
+        <v>178333</v>
       </c>
       <c r="AP19" s="18" t="n">
-        <v>178333</v>
+        <v>187614</v>
       </c>
       <c r="AQ19" s="18" t="n">
-        <v>187614</v>
+        <v>180706</v>
       </c>
       <c r="AR19" s="18" t="n">
-        <v>180706</v>
+        <v>179516</v>
       </c>
       <c r="AS19" s="18" t="n">
-        <v>179516</v>
+        <v>176477</v>
       </c>
       <c r="AT19" s="18" t="n">
-        <v>176477</v>
+        <v>178057</v>
       </c>
       <c r="AU19" s="18" t="n">
-        <v>178057</v>
+        <v>187285</v>
       </c>
       <c r="AV19" s="18" t="n">
-        <v>187285</v>
+        <v>180385</v>
       </c>
       <c r="AW19" s="18" t="n">
-        <v>180385</v>
+        <v>145998</v>
       </c>
       <c r="AX19" s="18" t="n">
-        <v>145998</v>
+        <v>159553</v>
       </c>
       <c r="AY19" s="18" t="n">
-        <v>159553</v>
+        <v>125374</v>
       </c>
       <c r="AZ19" s="18" t="n">
-        <v>125374</v>
+        <v>117528</v>
       </c>
       <c r="BA19" s="18" t="n">
-        <v>117528</v>
+        <v>149772</v>
       </c>
       <c r="BB19" s="18" t="n">
-        <v>149772</v>
+        <v>192940</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,8 +4759,8 @@
       <c r="W21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="22" t="s">
-        <v>58</v>
+      <c r="X21" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="Y21" s="22" t="n">
         <v>0</v>
@@ -4917,97 +4917,97 @@
         <v>0</v>
       </c>
       <c r="X22" s="18" t="n">
-        <v>0</v>
+        <v>463472</v>
       </c>
       <c r="Y22" s="18" t="n">
-        <v>463472</v>
+        <v>463934</v>
       </c>
       <c r="Z22" s="18" t="n">
-        <v>463934</v>
+        <v>447773</v>
       </c>
       <c r="AA22" s="18" t="n">
-        <v>447773</v>
+        <v>351769</v>
       </c>
       <c r="AB22" s="18" t="n">
-        <v>351769</v>
+        <v>459189</v>
       </c>
       <c r="AC22" s="18" t="n">
-        <v>459189</v>
+        <v>437720</v>
       </c>
       <c r="AD22" s="18" t="n">
-        <v>437720</v>
+        <v>491299</v>
       </c>
       <c r="AE22" s="18" t="n">
-        <v>491299</v>
+        <v>456804</v>
       </c>
       <c r="AF22" s="18" t="n">
-        <v>456804</v>
+        <v>466833</v>
       </c>
       <c r="AG22" s="18" t="n">
-        <v>466833</v>
+        <v>423511</v>
       </c>
       <c r="AH22" s="18" t="n">
-        <v>423511</v>
+        <v>458449</v>
       </c>
       <c r="AI22" s="18" t="n">
-        <v>458449</v>
+        <v>460838</v>
       </c>
       <c r="AJ22" s="18" t="n">
-        <v>460838</v>
+        <v>465436</v>
       </c>
       <c r="AK22" s="18" t="n">
-        <v>465436</v>
+        <v>464287</v>
       </c>
       <c r="AL22" s="18" t="n">
-        <v>464287</v>
+        <v>345032</v>
       </c>
       <c r="AM22" s="18" t="n">
-        <v>345032</v>
+        <v>279854</v>
       </c>
       <c r="AN22" s="18" t="n">
-        <v>279854</v>
+        <v>315472</v>
       </c>
       <c r="AO22" s="18" t="n">
-        <v>315472</v>
+        <v>451124</v>
       </c>
       <c r="AP22" s="18" t="n">
-        <v>451124</v>
+        <v>483101</v>
       </c>
       <c r="AQ22" s="18" t="n">
-        <v>483101</v>
+        <v>474233</v>
       </c>
       <c r="AR22" s="18" t="n">
-        <v>474233</v>
+        <v>437975</v>
       </c>
       <c r="AS22" s="18" t="n">
-        <v>437975</v>
+        <v>446590</v>
       </c>
       <c r="AT22" s="18" t="n">
-        <v>446590</v>
+        <v>458856</v>
       </c>
       <c r="AU22" s="18" t="n">
-        <v>458856</v>
+        <v>478603</v>
       </c>
       <c r="AV22" s="18" t="n">
-        <v>478603</v>
+        <v>466562</v>
       </c>
       <c r="AW22" s="18" t="n">
-        <v>466562</v>
+        <v>376524</v>
       </c>
       <c r="AX22" s="18" t="n">
-        <v>376524</v>
+        <v>411033</v>
       </c>
       <c r="AY22" s="18" t="n">
-        <v>411033</v>
+        <v>322575</v>
       </c>
       <c r="AZ22" s="18" t="n">
-        <v>322575</v>
+        <v>237224</v>
       </c>
       <c r="BA22" s="18" t="n">
-        <v>237224</v>
+        <v>349501</v>
       </c>
       <c r="BB22" s="18" t="n">
-        <v>349501</v>
+        <v>477017</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,92 +5509,92 @@
       <c r="W29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X29" s="13" t="s">
-        <v>58</v>
+      <c r="X29" s="13" t="n">
+        <v>139296</v>
       </c>
       <c r="Y29" s="13" t="n">
-        <v>139296</v>
+        <v>96324</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>96324</v>
+        <v>80609</v>
       </c>
       <c r="AA29" s="13" t="n">
-        <v>80609</v>
+        <v>87360</v>
       </c>
       <c r="AB29" s="13" t="n">
-        <v>87360</v>
+        <v>144840</v>
       </c>
       <c r="AC29" s="13" t="n">
-        <v>144840</v>
+        <v>115922</v>
       </c>
       <c r="AD29" s="13" t="n">
-        <v>115922</v>
+        <v>125722</v>
       </c>
       <c r="AE29" s="13" t="n">
-        <v>125722</v>
+        <v>96523</v>
       </c>
       <c r="AF29" s="13" t="n">
-        <v>96523</v>
+        <v>44964</v>
       </c>
       <c r="AG29" s="13" t="n">
-        <v>44964</v>
+        <v>39064</v>
       </c>
       <c r="AH29" s="13" t="n">
-        <v>39064</v>
+        <v>123891</v>
       </c>
       <c r="AI29" s="13" t="n">
-        <v>123891</v>
+        <v>115949</v>
       </c>
       <c r="AJ29" s="13" t="n">
-        <v>115949</v>
+        <v>83629</v>
       </c>
       <c r="AK29" s="13" t="n">
-        <v>83629</v>
+        <v>129244</v>
       </c>
       <c r="AL29" s="13" t="n">
-        <v>129244</v>
+        <v>86982</v>
       </c>
       <c r="AM29" s="13" t="n">
-        <v>86982</v>
+        <v>82756</v>
       </c>
       <c r="AN29" s="13" t="n">
-        <v>82756</v>
+        <v>90290</v>
       </c>
       <c r="AO29" s="13" t="n">
-        <v>90290</v>
+        <v>124103</v>
       </c>
       <c r="AP29" s="13" t="n">
-        <v>124103</v>
+        <v>64354</v>
       </c>
       <c r="AQ29" s="13" t="n">
-        <v>64354</v>
+        <v>80398</v>
       </c>
       <c r="AR29" s="13" t="n">
-        <v>80398</v>
+        <v>73459</v>
       </c>
       <c r="AS29" s="13" t="n">
-        <v>73459</v>
+        <v>104957</v>
       </c>
       <c r="AT29" s="13" t="n">
-        <v>104957</v>
+        <v>25177</v>
       </c>
       <c r="AU29" s="13" t="n">
-        <v>25177</v>
+        <v>103593</v>
       </c>
       <c r="AV29" s="13" t="n">
-        <v>103593</v>
+        <v>15067</v>
       </c>
       <c r="AW29" s="13" t="n">
-        <v>15067</v>
+        <v>62144</v>
       </c>
       <c r="AX29" s="13" t="n">
-        <v>62144</v>
+        <v>117986</v>
       </c>
       <c r="AY29" s="13" t="n">
-        <v>117986</v>
+        <v>69027</v>
       </c>
       <c r="AZ29" s="13" t="n">
-        <v>69027</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="13" t="n">
         <v>0</v>
@@ -5752,14 +5752,14 @@
       <c r="AY30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ30" s="16" t="s">
-        <v>58</v>
+      <c r="AZ30" s="16" t="n">
+        <v>65195</v>
       </c>
       <c r="BA30" s="16" t="n">
-        <v>65195</v>
+        <v>123728</v>
       </c>
       <c r="BB30" s="16" t="n">
-        <v>123728</v>
+        <v>83442</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,14 +5911,14 @@
       <c r="AY31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ31" s="13" t="s">
-        <v>58</v>
+      <c r="AZ31" s="13" t="n">
+        <v>190</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>190</v>
+        <v>10973</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>973</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,97 +5985,97 @@
         <v>0</v>
       </c>
       <c r="X32" s="18" t="n">
-        <v>0</v>
+        <v>139296</v>
       </c>
       <c r="Y32" s="18" t="n">
-        <v>139296</v>
+        <v>96324</v>
       </c>
       <c r="Z32" s="18" t="n">
-        <v>96324</v>
+        <v>80609</v>
       </c>
       <c r="AA32" s="18" t="n">
-        <v>80609</v>
+        <v>87360</v>
       </c>
       <c r="AB32" s="18" t="n">
-        <v>87360</v>
+        <v>144840</v>
       </c>
       <c r="AC32" s="18" t="n">
-        <v>144840</v>
+        <v>115922</v>
       </c>
       <c r="AD32" s="18" t="n">
-        <v>115922</v>
+        <v>125722</v>
       </c>
       <c r="AE32" s="18" t="n">
-        <v>125722</v>
+        <v>96523</v>
       </c>
       <c r="AF32" s="18" t="n">
-        <v>96523</v>
+        <v>44964</v>
       </c>
       <c r="AG32" s="18" t="n">
-        <v>44964</v>
+        <v>39064</v>
       </c>
       <c r="AH32" s="18" t="n">
-        <v>39064</v>
+        <v>123891</v>
       </c>
       <c r="AI32" s="18" t="n">
-        <v>123891</v>
+        <v>115949</v>
       </c>
       <c r="AJ32" s="18" t="n">
-        <v>115949</v>
+        <v>83629</v>
       </c>
       <c r="AK32" s="18" t="n">
-        <v>83629</v>
+        <v>129244</v>
       </c>
       <c r="AL32" s="18" t="n">
-        <v>129244</v>
+        <v>86982</v>
       </c>
       <c r="AM32" s="18" t="n">
-        <v>86982</v>
+        <v>82756</v>
       </c>
       <c r="AN32" s="18" t="n">
-        <v>82756</v>
+        <v>90290</v>
       </c>
       <c r="AO32" s="18" t="n">
-        <v>90290</v>
+        <v>124103</v>
       </c>
       <c r="AP32" s="18" t="n">
-        <v>124103</v>
+        <v>64354</v>
       </c>
       <c r="AQ32" s="18" t="n">
-        <v>64354</v>
+        <v>80398</v>
       </c>
       <c r="AR32" s="18" t="n">
-        <v>80398</v>
+        <v>73459</v>
       </c>
       <c r="AS32" s="18" t="n">
-        <v>73459</v>
+        <v>104957</v>
       </c>
       <c r="AT32" s="18" t="n">
-        <v>104957</v>
+        <v>25177</v>
       </c>
       <c r="AU32" s="18" t="n">
-        <v>25177</v>
+        <v>103593</v>
       </c>
       <c r="AV32" s="18" t="n">
-        <v>103593</v>
+        <v>15067</v>
       </c>
       <c r="AW32" s="18" t="n">
-        <v>15067</v>
+        <v>62144</v>
       </c>
       <c r="AX32" s="18" t="n">
-        <v>62144</v>
+        <v>117986</v>
       </c>
       <c r="AY32" s="18" t="n">
-        <v>117986</v>
+        <v>69027</v>
       </c>
       <c r="AZ32" s="18" t="n">
-        <v>69027</v>
+        <v>65385</v>
       </c>
       <c r="BA32" s="18" t="n">
-        <v>65385</v>
+        <v>134701</v>
       </c>
       <c r="BB32" s="18" t="n">
-        <v>124701</v>
+        <v>84107</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,23 +6200,23 @@
       <c r="W34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="X34" s="13" t="n">
+        <v>18501</v>
       </c>
       <c r="Y34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="13" t="n">
+        <v>18600</v>
+      </c>
+      <c r="AA34" s="13" t="n">
+        <v>18500</v>
+      </c>
+      <c r="AB34" s="13" t="n">
         <v>18501</v>
       </c>
-      <c r="Z34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="13" t="n">
-        <v>18600</v>
-      </c>
-      <c r="AB34" s="13" t="n">
+      <c r="AC34" s="13" t="n">
         <v>18500</v>
-      </c>
-      <c r="AC34" s="13" t="n">
-        <v>18501</v>
       </c>
       <c r="AD34" s="13" t="n">
         <v>18500</v>
@@ -6225,16 +6225,16 @@
         <v>18500</v>
       </c>
       <c r="AF34" s="13" t="n">
+        <v>37000</v>
+      </c>
+      <c r="AG34" s="13" t="n">
+        <v>18501</v>
+      </c>
+      <c r="AH34" s="13" t="n">
         <v>18500</v>
       </c>
-      <c r="AG34" s="13" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AH34" s="13" t="n">
-        <v>18501</v>
-      </c>
       <c r="AI34" s="13" t="n">
-        <v>18500</v>
+        <v>23001</v>
       </c>
       <c r="AJ34" s="13" t="n">
         <v>23001</v>
@@ -6243,28 +6243,28 @@
         <v>23001</v>
       </c>
       <c r="AL34" s="13" t="n">
-        <v>23001</v>
+        <v>23000</v>
       </c>
       <c r="AM34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="13" t="n">
+        <v>18501</v>
+      </c>
+      <c r="AO34" s="13" t="n">
+        <v>26415</v>
+      </c>
+      <c r="AP34" s="13" t="n">
+        <v>4703</v>
+      </c>
+      <c r="AQ34" s="13" t="n">
+        <v>23212</v>
+      </c>
+      <c r="AR34" s="13" t="n">
+        <v>41501</v>
+      </c>
+      <c r="AS34" s="13" t="n">
         <v>23000</v>
-      </c>
-      <c r="AN34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="13" t="n">
-        <v>18501</v>
-      </c>
-      <c r="AP34" s="13" t="n">
-        <v>26415</v>
-      </c>
-      <c r="AQ34" s="13" t="n">
-        <v>4703</v>
-      </c>
-      <c r="AR34" s="13" t="n">
-        <v>23212</v>
-      </c>
-      <c r="AS34" s="13" t="n">
-        <v>41501</v>
       </c>
       <c r="AT34" s="13" t="n">
         <v>23000</v>
@@ -6273,25 +6273,25 @@
         <v>23000</v>
       </c>
       <c r="AV34" s="13" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>0</v>
+        <v>48720</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>48720</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>0</v>
+        <v>25601</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>25601</v>
+        <v>32798</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>32798</v>
+        <v>44101</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>44101</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,95 +6359,95 @@
       <c r="W35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X35" s="16" t="s">
-        <v>58</v>
+      <c r="X35" s="16" t="n">
+        <v>236691</v>
       </c>
       <c r="Y35" s="16" t="n">
-        <v>236691</v>
+        <v>172918</v>
       </c>
       <c r="Z35" s="16" t="n">
-        <v>172918</v>
+        <v>240569</v>
       </c>
       <c r="AA35" s="16" t="n">
-        <v>240569</v>
+        <v>153087</v>
       </c>
       <c r="AB35" s="16" t="n">
-        <v>153087</v>
+        <v>60860</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>60860</v>
+        <v>211331</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>211331</v>
+        <v>167544</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>167544</v>
+        <v>158082</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>158082</v>
+        <v>205300</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>205300</v>
+        <v>118614</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>118614</v>
+        <v>247354</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>247354</v>
+        <v>228627</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>228627</v>
+        <v>156717</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>156717</v>
+        <v>153030</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>153030</v>
+        <v>250795</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>250795</v>
+        <v>60154</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>60154</v>
+        <v>91274</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>91274</v>
+        <v>92665</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>92665</v>
+        <v>263256</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>263256</v>
+        <v>119776</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>119776</v>
+        <v>189100</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>189100</v>
+        <v>66065</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>66065</v>
+        <v>277651</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>277651</v>
+        <v>398497</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>398497</v>
+        <v>166706</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>166706</v>
+        <v>250939</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>250939</v>
+        <v>160403</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>160403</v>
+        <v>83673</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>83673</v>
-      </c>
-      <c r="BA35" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB35" s="16" t="s">
         <v>58</v>
@@ -6602,14 +6602,14 @@
       <c r="AY36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ36" s="13" t="s">
-        <v>58</v>
+      <c r="AZ36" s="13" t="n">
+        <v>99451</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>99451</v>
+        <v>81991</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>81991</v>
+        <v>192679</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,97 +6676,97 @@
         <v>0</v>
       </c>
       <c r="X37" s="18" t="n">
-        <v>0</v>
+        <v>255192</v>
       </c>
       <c r="Y37" s="18" t="n">
-        <v>255192</v>
+        <v>172918</v>
       </c>
       <c r="Z37" s="18" t="n">
-        <v>172918</v>
+        <v>259169</v>
       </c>
       <c r="AA37" s="18" t="n">
-        <v>259169</v>
+        <v>171587</v>
       </c>
       <c r="AB37" s="18" t="n">
-        <v>171587</v>
+        <v>79361</v>
       </c>
       <c r="AC37" s="18" t="n">
-        <v>79361</v>
+        <v>229831</v>
       </c>
       <c r="AD37" s="18" t="n">
-        <v>229831</v>
+        <v>186044</v>
       </c>
       <c r="AE37" s="18" t="n">
-        <v>186044</v>
+        <v>176582</v>
       </c>
       <c r="AF37" s="18" t="n">
-        <v>176582</v>
+        <v>242300</v>
       </c>
       <c r="AG37" s="18" t="n">
-        <v>242300</v>
+        <v>137115</v>
       </c>
       <c r="AH37" s="18" t="n">
-        <v>137115</v>
+        <v>265854</v>
       </c>
       <c r="AI37" s="18" t="n">
-        <v>265854</v>
+        <v>251628</v>
       </c>
       <c r="AJ37" s="18" t="n">
-        <v>251628</v>
+        <v>179718</v>
       </c>
       <c r="AK37" s="18" t="n">
-        <v>179718</v>
+        <v>176031</v>
       </c>
       <c r="AL37" s="18" t="n">
-        <v>176031</v>
+        <v>273795</v>
       </c>
       <c r="AM37" s="18" t="n">
-        <v>273795</v>
+        <v>60154</v>
       </c>
       <c r="AN37" s="18" t="n">
-        <v>60154</v>
+        <v>109775</v>
       </c>
       <c r="AO37" s="18" t="n">
-        <v>109775</v>
+        <v>119080</v>
       </c>
       <c r="AP37" s="18" t="n">
-        <v>119080</v>
+        <v>267959</v>
       </c>
       <c r="AQ37" s="18" t="n">
-        <v>267959</v>
+        <v>142988</v>
       </c>
       <c r="AR37" s="18" t="n">
-        <v>142988</v>
+        <v>230601</v>
       </c>
       <c r="AS37" s="18" t="n">
-        <v>230601</v>
+        <v>89065</v>
       </c>
       <c r="AT37" s="18" t="n">
-        <v>89065</v>
+        <v>300651</v>
       </c>
       <c r="AU37" s="18" t="n">
-        <v>300651</v>
+        <v>421497</v>
       </c>
       <c r="AV37" s="18" t="n">
-        <v>421497</v>
+        <v>166706</v>
       </c>
       <c r="AW37" s="18" t="n">
-        <v>166706</v>
+        <v>299659</v>
       </c>
       <c r="AX37" s="18" t="n">
-        <v>299659</v>
+        <v>160403</v>
       </c>
       <c r="AY37" s="18" t="n">
-        <v>160403</v>
+        <v>109274</v>
       </c>
       <c r="AZ37" s="18" t="n">
-        <v>109274</v>
+        <v>132249</v>
       </c>
       <c r="BA37" s="18" t="n">
-        <v>132249</v>
+        <v>126092</v>
       </c>
       <c r="BB37" s="18" t="n">
-        <v>126092</v>
+        <v>218279</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,8 +6889,8 @@
       <c r="W39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X39" s="22" t="s">
-        <v>58</v>
+      <c r="X39" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="Y39" s="22" t="n">
         <v>0</v>
@@ -7103,8 +7103,8 @@
       <c r="W41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X41" s="22" t="s">
-        <v>58</v>
+      <c r="X41" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="Y41" s="22" t="n">
         <v>0</v>
@@ -7261,97 +7261,97 @@
         <v>0</v>
       </c>
       <c r="X42" s="18" t="n">
-        <v>0</v>
+        <v>394488</v>
       </c>
       <c r="Y42" s="18" t="n">
-        <v>394488</v>
+        <v>269242</v>
       </c>
       <c r="Z42" s="18" t="n">
-        <v>269242</v>
+        <v>339778</v>
       </c>
       <c r="AA42" s="18" t="n">
-        <v>339778</v>
+        <v>258947</v>
       </c>
       <c r="AB42" s="18" t="n">
-        <v>258947</v>
+        <v>224201</v>
       </c>
       <c r="AC42" s="18" t="n">
-        <v>224201</v>
+        <v>345753</v>
       </c>
       <c r="AD42" s="18" t="n">
-        <v>345753</v>
+        <v>311766</v>
       </c>
       <c r="AE42" s="18" t="n">
-        <v>311766</v>
+        <v>273105</v>
       </c>
       <c r="AF42" s="18" t="n">
-        <v>273105</v>
+        <v>287264</v>
       </c>
       <c r="AG42" s="18" t="n">
-        <v>287264</v>
+        <v>176179</v>
       </c>
       <c r="AH42" s="18" t="n">
-        <v>176179</v>
+        <v>389745</v>
       </c>
       <c r="AI42" s="18" t="n">
-        <v>389745</v>
+        <v>367577</v>
       </c>
       <c r="AJ42" s="18" t="n">
-        <v>367577</v>
+        <v>263347</v>
       </c>
       <c r="AK42" s="18" t="n">
-        <v>263347</v>
+        <v>305275</v>
       </c>
       <c r="AL42" s="18" t="n">
-        <v>305275</v>
+        <v>360777</v>
       </c>
       <c r="AM42" s="18" t="n">
-        <v>360777</v>
+        <v>142910</v>
       </c>
       <c r="AN42" s="18" t="n">
-        <v>142910</v>
+        <v>200065</v>
       </c>
       <c r="AO42" s="18" t="n">
-        <v>200065</v>
+        <v>243183</v>
       </c>
       <c r="AP42" s="18" t="n">
-        <v>243183</v>
+        <v>332313</v>
       </c>
       <c r="AQ42" s="18" t="n">
-        <v>332313</v>
+        <v>223386</v>
       </c>
       <c r="AR42" s="18" t="n">
-        <v>223386</v>
+        <v>304060</v>
       </c>
       <c r="AS42" s="18" t="n">
-        <v>304060</v>
+        <v>194022</v>
       </c>
       <c r="AT42" s="18" t="n">
-        <v>194022</v>
+        <v>325828</v>
       </c>
       <c r="AU42" s="18" t="n">
-        <v>325828</v>
+        <v>525090</v>
       </c>
       <c r="AV42" s="18" t="n">
-        <v>525090</v>
+        <v>181773</v>
       </c>
       <c r="AW42" s="18" t="n">
-        <v>181773</v>
+        <v>361803</v>
       </c>
       <c r="AX42" s="18" t="n">
-        <v>361803</v>
+        <v>278389</v>
       </c>
       <c r="AY42" s="18" t="n">
-        <v>278389</v>
+        <v>178301</v>
       </c>
       <c r="AZ42" s="18" t="n">
-        <v>178301</v>
+        <v>197634</v>
       </c>
       <c r="BA42" s="18" t="n">
-        <v>197634</v>
+        <v>260793</v>
       </c>
       <c r="BB42" s="18" t="n">
-        <v>250793</v>
+        <v>302386</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,92 +7853,92 @@
       <c r="W49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X49" s="13" t="s">
-        <v>58</v>
+      <c r="X49" s="13" t="n">
+        <v>5016249</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>5016249</v>
+        <v>3478397</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>3478397</v>
+        <v>2916769</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>2916769</v>
+        <v>3164249</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>3164249</v>
+        <v>5255871</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>5255871</v>
+        <v>4480431</v>
       </c>
       <c r="AD49" s="13" t="n">
-        <v>4480431</v>
+        <v>5789926</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>5789926</v>
+        <v>4443824</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>4443824</v>
+        <v>2081818</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>2081818</v>
+        <v>1810114</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>1810114</v>
+        <v>5703934</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>5703934</v>
+        <v>5355896</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>5355896</v>
+        <v>7544868</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>7544868</v>
+        <v>11692279</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>11692279</v>
+        <v>7876165</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>7876165</v>
+        <v>7480370</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>7480370</v>
+        <v>8145786</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>8145786</v>
+        <v>11218208</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>11218208</v>
+        <v>9329680</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>9329680</v>
+        <v>11674310</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>11674310</v>
+        <v>8579900</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>8579900</v>
+        <v>12247937</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>12247937</v>
+        <v>2936177</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>2936177</v>
+        <v>11366476</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>11366476</v>
+        <v>1652888</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>1652888</v>
+        <v>6821798</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>6821798</v>
+        <v>12938018</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>12938018</v>
+        <v>7566949</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>7566949</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="13" t="n">
         <v>0</v>
@@ -8096,14 +8096,14 @@
       <c r="AY50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ50" s="16" t="s">
-        <v>58</v>
+      <c r="AZ50" s="16" t="n">
+        <v>7147491</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>7147491</v>
+        <v>10048659</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>10048659</v>
+        <v>5733909</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8255,14 +8255,14 @@
       <c r="AY51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ51" s="13" t="s">
-        <v>58</v>
+      <c r="AZ51" s="13" t="n">
+        <v>22765</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>22765</v>
+        <v>893211</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>81051</v>
+        <v>54205</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8329,97 +8329,97 @@
         <v>0</v>
       </c>
       <c r="X52" s="18" t="n">
-        <v>0</v>
+        <v>5016249</v>
       </c>
       <c r="Y52" s="18" t="n">
-        <v>5016249</v>
+        <v>3478397</v>
       </c>
       <c r="Z52" s="18" t="n">
-        <v>3478397</v>
+        <v>2916769</v>
       </c>
       <c r="AA52" s="18" t="n">
-        <v>2916769</v>
+        <v>3164249</v>
       </c>
       <c r="AB52" s="18" t="n">
-        <v>3164249</v>
+        <v>5255871</v>
       </c>
       <c r="AC52" s="18" t="n">
-        <v>5255871</v>
+        <v>4480431</v>
       </c>
       <c r="AD52" s="18" t="n">
-        <v>4480431</v>
+        <v>5789926</v>
       </c>
       <c r="AE52" s="18" t="n">
-        <v>5789926</v>
+        <v>4443824</v>
       </c>
       <c r="AF52" s="18" t="n">
-        <v>4443824</v>
+        <v>2081818</v>
       </c>
       <c r="AG52" s="18" t="n">
-        <v>2081818</v>
+        <v>1810114</v>
       </c>
       <c r="AH52" s="18" t="n">
-        <v>1810114</v>
+        <v>5703934</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>5703934</v>
+        <v>5355896</v>
       </c>
       <c r="AJ52" s="18" t="n">
-        <v>5355896</v>
+        <v>7544868</v>
       </c>
       <c r="AK52" s="18" t="n">
-        <v>7544868</v>
+        <v>11692279</v>
       </c>
       <c r="AL52" s="18" t="n">
-        <v>11692279</v>
+        <v>7876165</v>
       </c>
       <c r="AM52" s="18" t="n">
-        <v>7876165</v>
+        <v>7480370</v>
       </c>
       <c r="AN52" s="18" t="n">
-        <v>7480370</v>
+        <v>8145786</v>
       </c>
       <c r="AO52" s="18" t="n">
-        <v>8145786</v>
+        <v>11218208</v>
       </c>
       <c r="AP52" s="18" t="n">
-        <v>11218208</v>
+        <v>9329680</v>
       </c>
       <c r="AQ52" s="18" t="n">
-        <v>9329680</v>
+        <v>11674310</v>
       </c>
       <c r="AR52" s="18" t="n">
-        <v>11674310</v>
+        <v>8579900</v>
       </c>
       <c r="AS52" s="18" t="n">
-        <v>8579900</v>
+        <v>12247937</v>
       </c>
       <c r="AT52" s="18" t="n">
-        <v>12247937</v>
+        <v>2936177</v>
       </c>
       <c r="AU52" s="18" t="n">
-        <v>2936177</v>
+        <v>11366476</v>
       </c>
       <c r="AV52" s="18" t="n">
-        <v>11366476</v>
+        <v>1652888</v>
       </c>
       <c r="AW52" s="18" t="n">
-        <v>1652888</v>
+        <v>6821798</v>
       </c>
       <c r="AX52" s="18" t="n">
-        <v>6821798</v>
+        <v>12938018</v>
       </c>
       <c r="AY52" s="18" t="n">
-        <v>12938018</v>
+        <v>7566949</v>
       </c>
       <c r="AZ52" s="18" t="n">
-        <v>7566949</v>
+        <v>7170256</v>
       </c>
       <c r="BA52" s="18" t="n">
-        <v>7170256</v>
+        <v>10941870</v>
       </c>
       <c r="BB52" s="18" t="n">
-        <v>10129710</v>
+        <v>5788114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8544,98 +8544,98 @@
       <c r="W54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="X54" s="13" t="n">
+        <v>480194</v>
       </c>
       <c r="Y54" s="13" t="n">
-        <v>480194</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="13" t="n">
-        <v>0</v>
+        <v>520445</v>
       </c>
       <c r="AA54" s="13" t="n">
-        <v>520445</v>
+        <v>519871</v>
       </c>
       <c r="AB54" s="13" t="n">
-        <v>519871</v>
+        <v>470099</v>
       </c>
       <c r="AC54" s="13" t="n">
-        <v>470099</v>
+        <v>499180</v>
       </c>
       <c r="AD54" s="13" t="n">
-        <v>499180</v>
+        <v>542905</v>
       </c>
       <c r="AE54" s="13" t="n">
-        <v>542905</v>
+        <v>667817</v>
       </c>
       <c r="AF54" s="13" t="n">
-        <v>667817</v>
+        <v>1403401</v>
       </c>
       <c r="AG54" s="13" t="n">
-        <v>1403401</v>
+        <v>863514</v>
       </c>
       <c r="AH54" s="13" t="n">
-        <v>863514</v>
+        <v>1299998</v>
       </c>
       <c r="AI54" s="13" t="n">
-        <v>1299998</v>
+        <v>2091308</v>
       </c>
       <c r="AJ54" s="13" t="n">
-        <v>2091308</v>
+        <v>2155701</v>
       </c>
       <c r="AK54" s="13" t="n">
-        <v>2155701</v>
+        <v>2142954</v>
       </c>
       <c r="AL54" s="13" t="n">
-        <v>2142954</v>
+        <v>2867672</v>
       </c>
       <c r="AM54" s="13" t="n">
-        <v>2867672</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="13" t="n">
-        <v>0</v>
+        <v>2299761</v>
       </c>
       <c r="AO54" s="13" t="n">
-        <v>2299761</v>
+        <v>3565180</v>
       </c>
       <c r="AP54" s="13" t="n">
-        <v>3565180</v>
+        <v>850906</v>
       </c>
       <c r="AQ54" s="13" t="n">
-        <v>850906</v>
+        <v>4851537</v>
       </c>
       <c r="AR54" s="13" t="n">
-        <v>4851537</v>
+        <v>8485322</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>8485322</v>
+        <v>4572232</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>4572232</v>
+        <v>4435078</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>4435078</v>
+        <v>4299510</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>4299510</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>0</v>
+        <v>9197732</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>9197732</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>0</v>
+        <v>4669065</v>
       </c>
       <c r="AZ54" s="13" t="n">
-        <v>4669065</v>
+        <v>4954414</v>
       </c>
       <c r="BA54" s="13" t="n">
-        <v>4954414</v>
+        <v>7270765</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>7267476</v>
+        <v>1780242</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8703,95 +8703,95 @@
       <c r="W55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X55" s="16" t="s">
-        <v>58</v>
+      <c r="X55" s="16" t="n">
+        <v>11349907</v>
       </c>
       <c r="Y55" s="16" t="n">
-        <v>11349907</v>
+        <v>9306413</v>
       </c>
       <c r="Z55" s="16" t="n">
-        <v>9306413</v>
+        <v>13468821</v>
       </c>
       <c r="AA55" s="16" t="n">
-        <v>13468821</v>
+        <v>8238245</v>
       </c>
       <c r="AB55" s="16" t="n">
-        <v>8238245</v>
+        <v>3074881</v>
       </c>
       <c r="AC55" s="16" t="n">
-        <v>3074881</v>
+        <v>13793781</v>
       </c>
       <c r="AD55" s="16" t="n">
-        <v>13793781</v>
+        <v>11517579</v>
       </c>
       <c r="AE55" s="16" t="n">
-        <v>11517579</v>
+        <v>9573557</v>
       </c>
       <c r="AF55" s="16" t="n">
-        <v>9573557</v>
+        <v>11913365</v>
       </c>
       <c r="AG55" s="16" t="n">
-        <v>11913365</v>
+        <v>7722236</v>
       </c>
       <c r="AH55" s="16" t="n">
-        <v>7722236</v>
+        <v>18094716</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>18094716</v>
+        <v>18190257</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>18190257</v>
+        <v>13768966</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>13768966</v>
+        <v>13441722</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>13441722</v>
+        <v>32897055</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>32897055</v>
+        <v>10798667</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>10798667</v>
+        <v>10273562</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>10273562</v>
+        <v>12746961</v>
       </c>
       <c r="AP55" s="16" t="n">
-        <v>12746961</v>
+        <v>38680264</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>38680264</v>
+        <v>22595477</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>22595477</v>
+        <v>27103528</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>27103528</v>
+        <v>8438731</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>8438731</v>
+        <v>37162348</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>37162348</v>
+        <v>59093219</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>59093219</v>
+        <v>26169649</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>26169649</v>
+        <v>33756853</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>33756853</v>
+        <v>20305874</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>20305874</v>
+        <v>8856870</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>8856870</v>
-      </c>
-      <c r="BA55" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA55" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB55" s="16" t="s">
         <v>58</v>
@@ -8946,14 +8946,14 @@
       <c r="AY56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ56" s="13" t="s">
-        <v>58</v>
+      <c r="AZ56" s="13" t="n">
+        <v>9464349</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>9464349</v>
+        <v>9333241</v>
       </c>
       <c r="BB56" s="13" t="n">
-        <v>10075054</v>
+        <v>18694794</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9020,97 +9020,97 @@
         <v>0</v>
       </c>
       <c r="X57" s="18" t="n">
-        <v>0</v>
+        <v>11830101</v>
       </c>
       <c r="Y57" s="18" t="n">
-        <v>11830101</v>
+        <v>9306413</v>
       </c>
       <c r="Z57" s="18" t="n">
-        <v>9306413</v>
+        <v>13989266</v>
       </c>
       <c r="AA57" s="18" t="n">
-        <v>13989266</v>
+        <v>8758116</v>
       </c>
       <c r="AB57" s="18" t="n">
-        <v>8758116</v>
+        <v>3544980</v>
       </c>
       <c r="AC57" s="18" t="n">
-        <v>3544980</v>
+        <v>14292961</v>
       </c>
       <c r="AD57" s="18" t="n">
-        <v>14292961</v>
+        <v>12060484</v>
       </c>
       <c r="AE57" s="18" t="n">
-        <v>12060484</v>
+        <v>10241374</v>
       </c>
       <c r="AF57" s="18" t="n">
-        <v>10241374</v>
+        <v>13316766</v>
       </c>
       <c r="AG57" s="18" t="n">
-        <v>13316766</v>
+        <v>8585750</v>
       </c>
       <c r="AH57" s="18" t="n">
-        <v>8585750</v>
+        <v>19394714</v>
       </c>
       <c r="AI57" s="18" t="n">
-        <v>19394714</v>
+        <v>20281565</v>
       </c>
       <c r="AJ57" s="18" t="n">
-        <v>20281565</v>
+        <v>15924667</v>
       </c>
       <c r="AK57" s="18" t="n">
-        <v>15924667</v>
+        <v>15584676</v>
       </c>
       <c r="AL57" s="18" t="n">
-        <v>15584676</v>
+        <v>35764727</v>
       </c>
       <c r="AM57" s="18" t="n">
-        <v>35764727</v>
+        <v>10798667</v>
       </c>
       <c r="AN57" s="18" t="n">
-        <v>10798667</v>
+        <v>12573323</v>
       </c>
       <c r="AO57" s="18" t="n">
-        <v>12573323</v>
+        <v>16312141</v>
       </c>
       <c r="AP57" s="18" t="n">
-        <v>16312141</v>
+        <v>39531170</v>
       </c>
       <c r="AQ57" s="18" t="n">
-        <v>39531170</v>
+        <v>27447014</v>
       </c>
       <c r="AR57" s="18" t="n">
-        <v>27447014</v>
+        <v>35588850</v>
       </c>
       <c r="AS57" s="18" t="n">
-        <v>35588850</v>
+        <v>13010963</v>
       </c>
       <c r="AT57" s="18" t="n">
-        <v>13010963</v>
+        <v>41597426</v>
       </c>
       <c r="AU57" s="18" t="n">
-        <v>41597426</v>
+        <v>63392729</v>
       </c>
       <c r="AV57" s="18" t="n">
-        <v>63392729</v>
+        <v>26169649</v>
       </c>
       <c r="AW57" s="18" t="n">
-        <v>26169649</v>
+        <v>42954585</v>
       </c>
       <c r="AX57" s="18" t="n">
-        <v>42954585</v>
+        <v>20305874</v>
       </c>
       <c r="AY57" s="18" t="n">
-        <v>20305874</v>
+        <v>13525935</v>
       </c>
       <c r="AZ57" s="18" t="n">
-        <v>13525935</v>
+        <v>14418763</v>
       </c>
       <c r="BA57" s="18" t="n">
-        <v>14418763</v>
+        <v>16604006</v>
       </c>
       <c r="BB57" s="18" t="n">
-        <v>17342530</v>
+        <v>20475036</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9235,8 +9235,8 @@
       <c r="W59" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X59" s="22" t="s">
-        <v>58</v>
+      <c r="X59" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y59" s="23" t="n">
         <v>0</v>
@@ -9451,8 +9451,8 @@
       <c r="W61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X61" s="22" t="s">
-        <v>58</v>
+      <c r="X61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y61" s="23" t="n">
         <v>0</v>
@@ -9667,8 +9667,8 @@
       <c r="W63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X63" s="13" t="s">
-        <v>58</v>
+      <c r="X63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y63" s="13" t="n">
         <v>0</v>
@@ -9825,97 +9825,97 @@
         <v>0</v>
       </c>
       <c r="X64" s="18" t="n">
-        <v>0</v>
+        <v>16846350</v>
       </c>
       <c r="Y64" s="18" t="n">
-        <v>16846350</v>
+        <v>12784810</v>
       </c>
       <c r="Z64" s="18" t="n">
-        <v>12784810</v>
+        <v>16906035</v>
       </c>
       <c r="AA64" s="18" t="n">
-        <v>16906035</v>
+        <v>11922365</v>
       </c>
       <c r="AB64" s="18" t="n">
-        <v>11922365</v>
+        <v>8800851</v>
       </c>
       <c r="AC64" s="18" t="n">
-        <v>8800851</v>
+        <v>18773392</v>
       </c>
       <c r="AD64" s="18" t="n">
-        <v>18773392</v>
+        <v>17850410</v>
       </c>
       <c r="AE64" s="18" t="n">
-        <v>17850410</v>
+        <v>14685198</v>
       </c>
       <c r="AF64" s="18" t="n">
-        <v>14685198</v>
+        <v>15398584</v>
       </c>
       <c r="AG64" s="18" t="n">
-        <v>15398584</v>
+        <v>10395864</v>
       </c>
       <c r="AH64" s="18" t="n">
-        <v>10395864</v>
+        <v>25098648</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>25098648</v>
+        <v>25637461</v>
       </c>
       <c r="AJ64" s="18" t="n">
-        <v>25637461</v>
+        <v>23469535</v>
       </c>
       <c r="AK64" s="18" t="n">
-        <v>23469535</v>
+        <v>27276955</v>
       </c>
       <c r="AL64" s="18" t="n">
-        <v>27276955</v>
+        <v>43640892</v>
       </c>
       <c r="AM64" s="18" t="n">
-        <v>43640892</v>
+        <v>18279037</v>
       </c>
       <c r="AN64" s="18" t="n">
-        <v>18279037</v>
+        <v>20719109</v>
       </c>
       <c r="AO64" s="18" t="n">
-        <v>20719109</v>
+        <v>27530349</v>
       </c>
       <c r="AP64" s="18" t="n">
-        <v>27530349</v>
+        <v>48860850</v>
       </c>
       <c r="AQ64" s="18" t="n">
-        <v>48860850</v>
+        <v>39121324</v>
       </c>
       <c r="AR64" s="18" t="n">
-        <v>39121324</v>
+        <v>44168750</v>
       </c>
       <c r="AS64" s="18" t="n">
-        <v>44168750</v>
+        <v>25258900</v>
       </c>
       <c r="AT64" s="18" t="n">
-        <v>25258900</v>
+        <v>44533603</v>
       </c>
       <c r="AU64" s="18" t="n">
-        <v>44533603</v>
+        <v>74759205</v>
       </c>
       <c r="AV64" s="18" t="n">
-        <v>74759205</v>
+        <v>27822537</v>
       </c>
       <c r="AW64" s="18" t="n">
-        <v>27822537</v>
+        <v>49776383</v>
       </c>
       <c r="AX64" s="18" t="n">
-        <v>49776383</v>
+        <v>33243892</v>
       </c>
       <c r="AY64" s="18" t="n">
-        <v>33243892</v>
+        <v>21092884</v>
       </c>
       <c r="AZ64" s="18" t="n">
-        <v>21092884</v>
+        <v>21589019</v>
       </c>
       <c r="BA64" s="18" t="n">
-        <v>21589019</v>
+        <v>27545876</v>
       </c>
       <c r="BB64" s="18" t="n">
-        <v>27472240</v>
+        <v>26263150</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10417,92 +10417,92 @@
       <c r="W71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X71" s="13" t="s">
-        <v>58</v>
+      <c r="X71" s="13" t="n">
+        <v>36011436</v>
       </c>
       <c r="Y71" s="13" t="n">
-        <v>36011436</v>
+        <v>36111426</v>
       </c>
       <c r="Z71" s="13" t="n">
-        <v>36111426</v>
+        <v>36184161</v>
       </c>
       <c r="AA71" s="13" t="n">
-        <v>36184161</v>
+        <v>36220799</v>
       </c>
       <c r="AB71" s="13" t="n">
-        <v>36220799</v>
+        <v>36287428</v>
       </c>
       <c r="AC71" s="13" t="n">
-        <v>36287428</v>
+        <v>38650394</v>
       </c>
       <c r="AD71" s="13" t="n">
-        <v>38650394</v>
+        <v>46053404</v>
       </c>
       <c r="AE71" s="13" t="n">
-        <v>46053404</v>
+        <v>46039017</v>
       </c>
       <c r="AF71" s="13" t="n">
-        <v>46039017</v>
+        <v>46299662</v>
       </c>
       <c r="AG71" s="13" t="n">
-        <v>46299662</v>
+        <v>46337139</v>
       </c>
       <c r="AH71" s="13" t="n">
-        <v>46337139</v>
+        <v>46039938</v>
       </c>
       <c r="AI71" s="13" t="n">
-        <v>46039938</v>
+        <v>46191826</v>
       </c>
       <c r="AJ71" s="13" t="n">
-        <v>46191826</v>
+        <v>90218321</v>
       </c>
       <c r="AK71" s="13" t="n">
-        <v>90218321</v>
+        <v>90466706</v>
       </c>
       <c r="AL71" s="13" t="n">
-        <v>90466706</v>
+        <v>90549367</v>
       </c>
       <c r="AM71" s="13" t="n">
-        <v>90549367</v>
+        <v>90390667</v>
       </c>
       <c r="AN71" s="13" t="n">
-        <v>90390667</v>
+        <v>90218031</v>
       </c>
       <c r="AO71" s="13" t="n">
-        <v>90218031</v>
+        <v>90394334</v>
       </c>
       <c r="AP71" s="13" t="n">
-        <v>90394334</v>
+        <v>144974361</v>
       </c>
       <c r="AQ71" s="13" t="n">
-        <v>144974361</v>
+        <v>145206473</v>
       </c>
       <c r="AR71" s="13" t="n">
-        <v>145206473</v>
+        <v>116798486</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>116798486</v>
+        <v>116694808</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>116694808</v>
+        <v>116621400</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>116621400</v>
+        <v>109722433</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>109722433</v>
+        <v>109702529</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>109702529</v>
+        <v>109774041</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>109774041</v>
+        <v>109657231</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>109657231</v>
-      </c>
-      <c r="AZ71" s="13" t="n">
         <v>109623032</v>
+      </c>
+      <c r="AZ71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA71" s="13" t="s">
         <v>58</v>
@@ -10660,14 +10660,14 @@
       <c r="AY72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ72" s="16" t="s">
-        <v>58</v>
+      <c r="AZ72" s="16" t="n">
+        <v>109632502</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>109632502</v>
+        <v>81215723</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>81215723</v>
+        <v>68717301</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10819,14 +10819,14 @@
       <c r="AY73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ73" s="13" t="s">
-        <v>58</v>
+      <c r="AZ73" s="13" t="n">
+        <v>119815789</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>119815789</v>
+        <v>81400802</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>83300103</v>
+        <v>81511278</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10951,98 +10951,98 @@
       <c r="W75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y75" s="13" t="n">
+      <c r="X75" s="13" t="n">
         <v>25955029</v>
       </c>
-      <c r="Z75" s="13" t="s">
-        <v>58</v>
+      <c r="Y75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z75" s="13" t="n">
+        <v>27980914</v>
       </c>
       <c r="AA75" s="13" t="n">
-        <v>27980914</v>
+        <v>28101135</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>28101135</v>
+        <v>25409383</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>25409383</v>
+        <v>26982703</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>26982703</v>
+        <v>29346216</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>29346216</v>
+        <v>36098216</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>36098216</v>
+        <v>37929757</v>
       </c>
       <c r="AG75" s="13" t="n">
-        <v>37929757</v>
+        <v>46673910</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>46673910</v>
+        <v>70270162</v>
       </c>
       <c r="AI75" s="13" t="n">
-        <v>70270162</v>
+        <v>90922482</v>
       </c>
       <c r="AJ75" s="13" t="n">
-        <v>90922482</v>
+        <v>93722056</v>
       </c>
       <c r="AK75" s="13" t="n">
-        <v>93722056</v>
+        <v>93167862</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>93167862</v>
-      </c>
-      <c r="AM75" s="13" t="n">
         <v>124681391</v>
       </c>
-      <c r="AN75" s="13" t="s">
-        <v>58</v>
+      <c r="AM75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN75" s="13" t="n">
+        <v>124304686</v>
       </c>
       <c r="AO75" s="13" t="n">
-        <v>124304686</v>
+        <v>134968011</v>
       </c>
       <c r="AP75" s="13" t="n">
-        <v>134968011</v>
+        <v>180928344</v>
       </c>
       <c r="AQ75" s="13" t="n">
-        <v>180928344</v>
+        <v>209009866</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>209009866</v>
+        <v>204460664</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>204460664</v>
+        <v>198792696</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>198792696</v>
+        <v>192829478</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>192829478</v>
-      </c>
-      <c r="AV75" s="13" t="n">
         <v>186935217</v>
       </c>
-      <c r="AW75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX75" s="13" t="n">
+      <c r="AV75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW75" s="13" t="n">
         <v>188787603</v>
       </c>
-      <c r="AY75" s="13" t="s">
-        <v>58</v>
+      <c r="AX75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY75" s="13" t="n">
+        <v>182378227</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>182378227</v>
+        <v>151058418</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>151058418</v>
+        <v>164866216</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>164791637</v>
+        <v>69540703</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11110,92 +11110,92 @@
       <c r="W76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X76" s="16" t="s">
-        <v>58</v>
+      <c r="X76" s="16" t="n">
+        <v>47952423</v>
       </c>
       <c r="Y76" s="16" t="n">
-        <v>47952423</v>
+        <v>53819805</v>
       </c>
       <c r="Z76" s="16" t="n">
-        <v>53819805</v>
+        <v>55987351</v>
       </c>
       <c r="AA76" s="16" t="n">
-        <v>55987351</v>
+        <v>53814138</v>
       </c>
       <c r="AB76" s="16" t="n">
-        <v>53814138</v>
+        <v>50523842</v>
       </c>
       <c r="AC76" s="16" t="n">
-        <v>50523842</v>
+        <v>65270978</v>
       </c>
       <c r="AD76" s="16" t="n">
-        <v>65270978</v>
+        <v>68743608</v>
       </c>
       <c r="AE76" s="16" t="n">
-        <v>68743608</v>
+        <v>60560703</v>
       </c>
       <c r="AF76" s="16" t="n">
-        <v>60560703</v>
+        <v>58029055</v>
       </c>
       <c r="AG76" s="16" t="n">
-        <v>58029055</v>
+        <v>65103917</v>
       </c>
       <c r="AH76" s="16" t="n">
-        <v>65103917</v>
+        <v>73153117</v>
       </c>
       <c r="AI76" s="16" t="n">
-        <v>73153117</v>
+        <v>79563031</v>
       </c>
       <c r="AJ76" s="16" t="n">
-        <v>79563031</v>
+        <v>87858790</v>
       </c>
       <c r="AK76" s="16" t="n">
-        <v>87858790</v>
+        <v>87837169</v>
       </c>
       <c r="AL76" s="16" t="n">
-        <v>87837169</v>
+        <v>131171096</v>
       </c>
       <c r="AM76" s="16" t="n">
-        <v>131171096</v>
+        <v>179517023</v>
       </c>
       <c r="AN76" s="16" t="n">
-        <v>179517023</v>
+        <v>112557377</v>
       </c>
       <c r="AO76" s="16" t="n">
-        <v>112557377</v>
+        <v>137559607</v>
       </c>
       <c r="AP76" s="16" t="n">
-        <v>137559607</v>
+        <v>146930228</v>
       </c>
       <c r="AQ76" s="16" t="n">
-        <v>146930228</v>
+        <v>188647784</v>
       </c>
       <c r="AR76" s="16" t="n">
-        <v>188647784</v>
+        <v>143329075</v>
       </c>
       <c r="AS76" s="16" t="n">
-        <v>143329075</v>
+        <v>127733762</v>
       </c>
       <c r="AT76" s="16" t="n">
-        <v>127733762</v>
+        <v>133845540</v>
       </c>
       <c r="AU76" s="16" t="n">
-        <v>133845540</v>
+        <v>148290248</v>
       </c>
       <c r="AV76" s="16" t="n">
-        <v>148290248</v>
+        <v>156980847</v>
       </c>
       <c r="AW76" s="16" t="n">
-        <v>156980847</v>
+        <v>134522147</v>
       </c>
       <c r="AX76" s="16" t="n">
-        <v>134522147</v>
+        <v>126592857</v>
       </c>
       <c r="AY76" s="16" t="n">
-        <v>126592857</v>
-      </c>
-      <c r="AZ76" s="16" t="n">
         <v>105850991</v>
+      </c>
+      <c r="AZ76" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BA76" s="16" t="s">
         <v>58</v>
@@ -11353,14 +11353,14 @@
       <c r="AY77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ77" s="13" t="s">
-        <v>58</v>
+      <c r="AZ77" s="13" t="n">
+        <v>95165951</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>95165951</v>
+        <v>113832506</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>122879999</v>
+        <v>97025592</v>
       </c>
     </row>
   </sheetData>
